--- a/Morais/NOW.xlsx
+++ b/Morais/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/decc0a7aee32c85f/Ambiente de Trabalho/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://phdisegutl-my.sharepoint.com/personal/l59357_aln_iseg_ulisboa_pt/Documents/Desktop/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="566" documentId="8_{85744044-E063-4D88-8D5D-DCC1266028AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E8F2427-0784-4C3F-ABC1-3F168DD2674D}"/>
+  <xr:revisionPtr revIDLastSave="715" documentId="8_{85744044-E063-4D88-8D5D-DCC1266028AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B59D480-FF17-4C8C-9AFB-5B312C139947}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9029735D-3329-4F38-BC9B-A5EB12F66375}"/>
+    <workbookView xWindow="28680" yWindow="-990" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9029735D-3329-4F38-BC9B-A5EB12F66375}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>ticket</t>
   </si>
@@ -60,9 +82,6 @@
     <t>ev</t>
   </si>
   <si>
-    <t>now</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
@@ -303,20 +322,28 @@
     <t>Price</t>
   </si>
   <si>
-    <t>TTM FCF/EV</t>
+    <t/>
+  </si>
+  <si>
+    <t>% sales</t>
+  </si>
+  <si>
+    <t>EV/FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +379,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -374,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -394,13 +432,20 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -423,16 +468,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -447,8 +492,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12172950" y="9525"/>
-          <a:ext cx="0" cy="8924925"/>
+          <a:off x="18259425" y="0"/>
+          <a:ext cx="38100" cy="16516350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -474,8 +519,423 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yoa2&amp;q=XNYS%3aNOW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>en-US</v>
+    <v>a1yoa2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>0</v>
+    <v>SERVICENOW, INC. (XNYS:NOW)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>1198.0899999999999</v>
+    <v>637.99</v>
+    <v>0.98280000000000001</v>
+    <v>-19.489999999999998</v>
+    <v>-2.4875999999999999E-2</v>
+    <v>USD</v>
+    <v>ServiceNow, Inc. provides an artificial intelligence (AI) platform for business transformation. The Company’s AI platform connects people, processes, data, and devices to increase productivity and maximize business outcomes. Its intelligent platform, the Now Platform, is a cloud-based solution that helps enterprises and organizations across public and private sectors digitize workflows. The workflow applications built on the Now Platform are organized in four primary areas: technology, customer and industry, employee and creator. Its technology workflows empower information technology (IT) departments to plan, build, operate and service the IT needs of the business enterprise. Its customer and industry workflows help organizations reimagine their customer experience. Its employee workflows help customers simplify how their employees access services they need. Its creator workflows enable customers to automate processes by creating their own custom workflows on the Now Platform.</v>
+    <v>26293</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2225 Lawson Lane, SANTA CLARA, CA, 95054 US</v>
+    <v>775</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45758.649955543748</v>
+    <v>0</v>
+    <v>755</v>
+    <v>158149757200</v>
+    <v>SERVICENOW, INC.</v>
+    <v>SERVICENOW, INC.</v>
+    <v>775</v>
+    <v>111.4143</v>
+    <v>783.49</v>
+    <v>764</v>
+    <v>207002300</v>
+    <v>NOW</v>
+    <v>SERVICENOW, INC. (XNYS:NOW)</v>
+    <v>744539</v>
+    <v>2223402</v>
+    <v>2012</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="42">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+    </spb>
+    <spb s="4">
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -795,78 +1255,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71743111-E2FE-4543-8121-017DDF776FE3}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="10.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="J2" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="J3" s="20">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="J4" s="7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
-        <f>+B2*B3</f>
-        <v>174250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="J5" s="16">
+        <f>+J3*J4</f>
+        <v>152440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
-        <f>2159+3254+3472</f>
-        <v>8885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="J6" s="16">
+        <f>2304+3458+4111</f>
+        <v>9873</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="J7" s="16">
+        <v>1489</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
-        <f>+B4-B5+B6</f>
-        <v>166853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J8" s="16">
+        <f>+J5-J6+J7</f>
+        <v>144056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
     </row>
   </sheetData>
@@ -876,108 +1344,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FBAA2A-E56E-4872-A2FC-2B63594BF758}">
-  <dimension ref="A1:BO79"/>
+  <dimension ref="A1:BY84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="8.88671875" style="1"/>
-    <col min="28" max="28" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="37" width="8.88671875" style="1"/>
+    <col min="38" max="38" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="Q1" s="2">
-        <v>2021</v>
+        <f t="shared" ref="Q1:X1" si="0">+R1-1</f>
+        <v>2012</v>
       </c>
       <c r="R1" s="2">
-        <v>2022</v>
+        <f t="shared" si="0"/>
+        <v>2013</v>
       </c>
       <c r="S1" s="2">
-        <f>+R1+1</f>
-        <v>2023</v>
+        <f t="shared" si="0"/>
+        <v>2014</v>
       </c>
       <c r="T1" s="2">
-        <f t="shared" ref="T1:Z1" si="0">+S1+1</f>
-        <v>2024</v>
+        <f t="shared" si="0"/>
+        <v>2015</v>
       </c>
       <c r="U1" s="2">
         <f t="shared" si="0"/>
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="V1" s="2">
         <f t="shared" si="0"/>
-        <v>2026</v>
+        <v>2017</v>
       </c>
       <c r="W1" s="2">
         <f t="shared" si="0"/>
-        <v>2027</v>
+        <v>2018</v>
       </c>
       <c r="X1" s="2">
         <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>+Z1-1</f>
+        <v>2020</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>+AA1+1</f>
+        <v>2023</v>
+      </c>
+      <c r="AC1" s="2">
+        <f t="shared" ref="AC1:AI1" si="1">+AB1+1</f>
+        <v>2024</v>
+      </c>
+      <c r="AD1" s="2">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="AE1" s="2">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="AF1" s="2">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="AG1" s="2">
+        <f t="shared" si="1"/>
         <v>2028</v>
       </c>
-      <c r="Y1" s="2">
-        <f t="shared" si="0"/>
+      <c r="AH1" s="2">
+        <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-      <c r="Z1" s="2">
-        <f t="shared" si="0"/>
+      <c r="AI1" s="2">
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="2">
+        <f t="shared" ref="AJ1" si="2">+AI1+1</f>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1003,33 +1511,36 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="Q2" s="5">
+      <c r="Z2" s="5">
         <v>3752</v>
       </c>
-      <c r="R2" s="5">
+      <c r="AA2" s="5">
         <v>4723</v>
       </c>
-      <c r="S2" s="5">
+      <c r="AB2" s="5">
         <v>5702</v>
       </c>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AB2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC2" s="5">
+        <v>6909</v>
+      </c>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AL2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1055,33 +1566,36 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="Q3" s="5">
+      <c r="Z3" s="5">
         <v>1551</v>
       </c>
-      <c r="R3" s="5">
+      <c r="AA3" s="5">
         <v>1778</v>
       </c>
-      <c r="S3" s="5">
+      <c r="AB3" s="5">
         <v>2298</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AB3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC3" s="5">
+        <v>2834</v>
+      </c>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AL3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1107,30 +1621,33 @@
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-      <c r="Q4" s="5">
+      <c r="Z4" s="5">
         <v>593</v>
       </c>
-      <c r="R4" s="5">
+      <c r="AA4" s="5">
         <v>744</v>
       </c>
-      <c r="S4" s="5">
+      <c r="AB4" s="5">
         <v>971</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AB4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AC4" s="5">
+        <v>1241</v>
+      </c>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AL4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1144,28 +1661,29 @@
       <c r="L5" s="6"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AB5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC5" s="13">
-        <f>+NPV(AC2,T25:BO25)</f>
-        <v>113649.95477274325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AL5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" s="13">
+        <f>+NPV(AM2,AC25:BY25)</f>
+        <v>164297.77461254105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1189,55 +1707,58 @@
       <c r="L6" s="5">
         <v>2248</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Z6" s="5">
         <v>4882</v>
       </c>
-      <c r="R6" s="5">
+      <c r="AA6" s="5">
         <v>6077</v>
       </c>
-      <c r="S6" s="5">
+      <c r="AB6" s="5">
         <v>7679</v>
       </c>
-      <c r="T6" s="5">
-        <f>+S6*1.25</f>
-        <v>9598.75</v>
-      </c>
-      <c r="U6" s="5">
-        <f t="shared" ref="U6:Z6" si="1">+T6*1.25</f>
-        <v>11998.4375</v>
-      </c>
-      <c r="V6" s="5">
-        <f t="shared" si="1"/>
-        <v>14998.046875</v>
-      </c>
-      <c r="W6" s="5">
-        <f t="shared" si="1"/>
-        <v>18747.55859375</v>
-      </c>
-      <c r="X6" s="5">
-        <f t="shared" si="1"/>
-        <v>23434.4482421875</v>
-      </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="1"/>
-        <v>29293.060302734375</v>
-      </c>
-      <c r="Z6" s="5">
-        <f t="shared" si="1"/>
-        <v>36616.325378417969</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="5">
+        <v>9422</v>
+      </c>
+      <c r="AD6" s="5">
+        <f>+AC6*1.23</f>
+        <v>11589.06</v>
+      </c>
+      <c r="AE6" s="5">
+        <f>+AD6*1.22</f>
+        <v>14138.653199999999</v>
+      </c>
+      <c r="AF6" s="5">
+        <f>+AE6*1.2</f>
+        <v>16966.383839999999</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" ref="AG6:AI6" si="3">+AF6*1.2</f>
+        <v>20359.660607999998</v>
+      </c>
+      <c r="AH6" s="5">
+        <f t="shared" si="3"/>
+        <v>24431.592729599997</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="3"/>
+        <v>29317.911275519997</v>
+      </c>
+      <c r="AJ6" s="5">
+        <f t="shared" ref="AJ6:AJ7" si="4">+AI6*1.2</f>
+        <v>35181.493530623993</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM6" s="13">
         <f>+L50</f>
         <v>7397</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1261,54 +1782,57 @@
       <c r="L7" s="5">
         <v>294</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Z7" s="5">
         <v>691</v>
       </c>
-      <c r="R7" s="5">
+      <c r="AA7" s="5">
         <v>814</v>
       </c>
-      <c r="S7" s="5">
+      <c r="AB7" s="5">
         <v>1001</v>
       </c>
-      <c r="T7" s="5">
-        <f>+S7*1.15</f>
-        <v>1151.1499999999999</v>
-      </c>
-      <c r="U7" s="5">
-        <f t="shared" ref="U7:Z7" si="2">+T7*1.15</f>
-        <v>1323.8224999999998</v>
-      </c>
-      <c r="V7" s="5">
-        <f t="shared" si="2"/>
-        <v>1522.3958749999997</v>
-      </c>
-      <c r="W7" s="5">
-        <f t="shared" si="2"/>
-        <v>1750.7552562499995</v>
-      </c>
-      <c r="X7" s="5">
-        <f t="shared" si="2"/>
-        <v>2013.3685446874993</v>
-      </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="2"/>
-        <v>2315.3738263906239</v>
-      </c>
-      <c r="Z7" s="5">
-        <f t="shared" si="2"/>
-        <v>2662.6799003492174</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC7" s="13">
-        <f>+AC5+AC6</f>
-        <v>121046.95477274325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC7" s="5">
+        <v>1224</v>
+      </c>
+      <c r="AD7" s="5">
+        <f>+AC7*1.2</f>
+        <v>1468.8</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" ref="AE7:AI7" si="5">+AD7*1.2</f>
+        <v>1762.56</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="5"/>
+        <v>2115.0719999999997</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="5"/>
+        <v>2538.0863999999997</v>
+      </c>
+      <c r="AH7" s="5">
+        <f t="shared" si="5"/>
+        <v>3045.7036799999996</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="5"/>
+        <v>3654.8444159999995</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" si="4"/>
+        <v>4385.8132991999992</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM7" s="13">
+        <f>+AM5+AM6</f>
+        <v>171694.77461254105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>1631</v>
@@ -1344,54 +1868,67 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5">
         <v>5573</v>
       </c>
-      <c r="R8" s="5">
+      <c r="AA8" s="5">
         <v>6891</v>
       </c>
-      <c r="S8" s="5">
+      <c r="AB8" s="5">
         <v>8680</v>
       </c>
-      <c r="T8" s="5">
-        <f>+T6+T7</f>
-        <v>10749.9</v>
-      </c>
-      <c r="U8" s="5">
-        <f t="shared" ref="U8:Z8" si="3">+U6+U7</f>
-        <v>13322.26</v>
-      </c>
-      <c r="V8" s="5">
-        <f t="shared" si="3"/>
-        <v>16520.442749999998</v>
-      </c>
-      <c r="W8" s="5">
-        <f t="shared" si="3"/>
-        <v>20498.313849999999</v>
-      </c>
-      <c r="X8" s="5">
-        <f t="shared" si="3"/>
-        <v>25447.816786874999</v>
-      </c>
-      <c r="Y8" s="5">
-        <f t="shared" si="3"/>
-        <v>31608.434129124998</v>
-      </c>
-      <c r="Z8" s="5">
-        <f t="shared" si="3"/>
-        <v>39279.005278767188</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC8" s="14">
-        <f>+AC7/main!B3</f>
-        <v>590.47295011094263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC8" s="5">
+        <f>+AC6+AC7</f>
+        <v>10646</v>
+      </c>
+      <c r="AD8" s="5">
+        <f t="shared" ref="AD8:AI8" si="6">+AD6+AD7</f>
+        <v>13057.859999999999</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" si="6"/>
+        <v>15901.213199999998</v>
+      </c>
+      <c r="AF8" s="5">
+        <f t="shared" si="6"/>
+        <v>19081.455839999999</v>
+      </c>
+      <c r="AG8" s="5">
+        <f t="shared" si="6"/>
+        <v>22897.747007999998</v>
+      </c>
+      <c r="AH8" s="5">
+        <f t="shared" si="6"/>
+        <v>27477.296409599996</v>
+      </c>
+      <c r="AI8" s="5">
+        <f t="shared" si="6"/>
+        <v>32972.755691519997</v>
+      </c>
+      <c r="AJ8" s="5">
+        <f t="shared" ref="AJ8" si="7">+AJ6+AJ7</f>
+        <v>39567.306829823996</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" s="14">
+        <f>+AM7/main!J4</f>
+        <v>833.4697796725294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5">
         <v>91</v>
@@ -1427,45 +1964,57 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5">
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5">
         <v>323</v>
       </c>
-      <c r="R9" s="5">
+      <c r="AA9" s="5">
         <v>354</v>
       </c>
-      <c r="S9" s="5">
+      <c r="AB9" s="5">
         <v>291</v>
       </c>
-      <c r="T9" s="5">
-        <f>+S9*1.025</f>
-        <v>298.27499999999998</v>
-      </c>
-      <c r="U9" s="5">
-        <f t="shared" ref="U9:Z9" si="4">+T9*1.025</f>
-        <v>305.73187499999995</v>
-      </c>
-      <c r="V9" s="5">
-        <f t="shared" si="4"/>
-        <v>313.37517187499992</v>
-      </c>
-      <c r="W9" s="5">
-        <f t="shared" si="4"/>
-        <v>321.20955117187486</v>
-      </c>
-      <c r="X9" s="5">
-        <f t="shared" si="4"/>
-        <v>329.2397899511717</v>
-      </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="4"/>
-        <v>337.47078469995097</v>
-      </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="4"/>
-        <v>345.90755431744969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC9" s="5">
+        <v>338</v>
+      </c>
+      <c r="AD9" s="5">
+        <f t="shared" ref="AD9:AI9" si="8">+AC9*1.025</f>
+        <v>346.45</v>
+      </c>
+      <c r="AE9" s="5">
+        <f t="shared" si="8"/>
+        <v>355.11124999999998</v>
+      </c>
+      <c r="AF9" s="5">
+        <f t="shared" si="8"/>
+        <v>363.98903124999993</v>
+      </c>
+      <c r="AG9" s="5">
+        <f t="shared" si="8"/>
+        <v>373.08875703124988</v>
+      </c>
+      <c r="AH9" s="5">
+        <f t="shared" si="8"/>
+        <v>382.41597595703109</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="8"/>
+        <v>391.97637535595686</v>
+      </c>
+      <c r="AJ9" s="5">
+        <f t="shared" ref="AJ9" si="9">+AI9*1.025</f>
+        <v>401.77578473985574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1490,48 +2039,58 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AB10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC10" s="15">
-        <f>+L47/main!B7</f>
-        <v>1.8477342331273638E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AL10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM10" s="22">
+        <f>+main!J8/model!AC46</f>
+        <v>42.183308931185941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" ref="C11:J11" si="5">+C8+C9</f>
+        <f t="shared" ref="C11:J11" si="10">+C8+C9</f>
         <v>1722</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1752</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1831</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1940</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2096</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2150</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2288</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2437</v>
       </c>
       <c r="K11" s="6">
@@ -1539,63 +2098,94 @@
         <v>2603</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" ref="L11:N11" si="6">+L8+L9</f>
+        <f t="shared" ref="L11:N11" si="11">+L8+L9</f>
         <v>2627</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="6">
-        <f t="shared" ref="Q11:Z11" si="7">+Q8+Q9</f>
+      <c r="Q11" s="18">
+        <v>243.7</v>
+      </c>
+      <c r="R11" s="18">
+        <v>424.6</v>
+      </c>
+      <c r="S11" s="18">
+        <v>682.6</v>
+      </c>
+      <c r="T11" s="18">
+        <v>1005.5</v>
+      </c>
+      <c r="U11" s="18">
+        <v>1391</v>
+      </c>
+      <c r="V11" s="18">
+        <v>1918.5</v>
+      </c>
+      <c r="W11" s="18">
+        <v>2608.8000000000002</v>
+      </c>
+      <c r="X11" s="18">
+        <v>3460</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>4519</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" ref="Z11:AI11" si="12">+Z8+Z9</f>
         <v>5896</v>
       </c>
-      <c r="R11" s="6">
-        <f t="shared" si="7"/>
+      <c r="AA11" s="6">
+        <f t="shared" si="12"/>
         <v>7245</v>
       </c>
-      <c r="S11" s="6">
-        <f t="shared" si="7"/>
+      <c r="AB11" s="6">
+        <f t="shared" si="12"/>
         <v>8971</v>
       </c>
-      <c r="T11" s="6">
-        <f t="shared" si="7"/>
-        <v>11048.174999999999</v>
-      </c>
-      <c r="U11" s="6">
-        <f t="shared" si="7"/>
-        <v>13627.991875</v>
-      </c>
-      <c r="V11" s="6">
-        <f t="shared" si="7"/>
-        <v>16833.817921874997</v>
-      </c>
-      <c r="W11" s="6">
-        <f t="shared" si="7"/>
-        <v>20819.523401171875</v>
-      </c>
-      <c r="X11" s="6">
-        <f t="shared" si="7"/>
-        <v>25777.056576826169</v>
-      </c>
-      <c r="Y11" s="6">
-        <f t="shared" si="7"/>
-        <v>31945.90491382495</v>
-      </c>
-      <c r="Z11" s="6">
-        <f t="shared" si="7"/>
-        <v>39624.912833084636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC11" s="6">
+        <f t="shared" si="12"/>
+        <v>10984</v>
+      </c>
+      <c r="AD11" s="6">
+        <f t="shared" si="12"/>
+        <v>13404.31</v>
+      </c>
+      <c r="AE11" s="6">
+        <f t="shared" si="12"/>
+        <v>16256.324449999998</v>
+      </c>
+      <c r="AF11" s="6">
+        <f t="shared" si="12"/>
+        <v>19445.444871249998</v>
+      </c>
+      <c r="AG11" s="6">
+        <f t="shared" si="12"/>
+        <v>23270.83576503125</v>
+      </c>
+      <c r="AH11" s="6">
+        <f t="shared" si="12"/>
+        <v>27859.712385557028</v>
+      </c>
+      <c r="AI11" s="6">
+        <f t="shared" si="12"/>
+        <v>33364.732066875957</v>
+      </c>
+      <c r="AJ11" s="6">
+        <f t="shared" ref="AJ11" si="13">+AJ8+AJ9</f>
+        <v>39969.082614563849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>275</v>
@@ -1631,47 +2221,59 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5">
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5">
         <v>1022</v>
       </c>
-      <c r="R12" s="5">
+      <c r="AA12" s="5">
         <v>1187</v>
       </c>
-      <c r="S12" s="5">
+      <c r="AB12" s="5">
         <v>1606</v>
       </c>
-      <c r="T12" s="5">
-        <f>+T11*0.17</f>
-        <v>1878.18975</v>
-      </c>
-      <c r="U12" s="5">
-        <f t="shared" ref="U12:Z12" si="8">+U11*0.17</f>
-        <v>2316.7586187500001</v>
-      </c>
-      <c r="V12" s="5">
-        <f t="shared" si="8"/>
-        <v>2861.7490467187499</v>
-      </c>
-      <c r="W12" s="5">
-        <f t="shared" si="8"/>
-        <v>3539.3189781992191</v>
-      </c>
-      <c r="X12" s="5">
-        <f t="shared" si="8"/>
-        <v>4382.0996180604488</v>
-      </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="8"/>
-        <v>5430.8038353502416</v>
-      </c>
-      <c r="Z12" s="5">
-        <f t="shared" si="8"/>
-        <v>6736.235181624389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC12" s="5">
+        <v>1942</v>
+      </c>
+      <c r="AD12" s="5">
+        <f t="shared" ref="AD12:AI12" si="14">+AD11*0.17</f>
+        <v>2278.7327</v>
+      </c>
+      <c r="AE12" s="5">
+        <f t="shared" si="14"/>
+        <v>2763.5751565</v>
+      </c>
+      <c r="AF12" s="5">
+        <f t="shared" si="14"/>
+        <v>3305.7256281125001</v>
+      </c>
+      <c r="AG12" s="5">
+        <f t="shared" si="14"/>
+        <v>3956.0420800553129</v>
+      </c>
+      <c r="AH12" s="5">
+        <f t="shared" si="14"/>
+        <v>4736.1511055446954</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="14"/>
+        <v>5672.0044513689127</v>
+      </c>
+      <c r="AJ12" s="5">
+        <f t="shared" ref="AJ12" si="15">+AJ11*0.17</f>
+        <v>6794.7440444758549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5">
         <v>94</v>
@@ -1707,78 +2309,90 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="5">
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5">
         <v>331</v>
       </c>
-      <c r="R13" s="5">
+      <c r="AA13" s="5">
         <v>386</v>
       </c>
-      <c r="S13" s="5">
+      <c r="AB13" s="5">
         <v>315</v>
       </c>
-      <c r="T13" s="5">
-        <f>+T11*0.035</f>
-        <v>386.686125</v>
-      </c>
-      <c r="U13" s="5">
-        <f t="shared" ref="U13:Z13" si="9">+U11*0.035</f>
-        <v>476.97971562500004</v>
-      </c>
-      <c r="V13" s="5">
-        <f t="shared" si="9"/>
-        <v>589.18362726562498</v>
-      </c>
-      <c r="W13" s="5">
-        <f t="shared" si="9"/>
-        <v>728.68331904101569</v>
-      </c>
-      <c r="X13" s="5">
-        <f t="shared" si="9"/>
-        <v>902.19698018891597</v>
-      </c>
-      <c r="Y13" s="5">
-        <f t="shared" si="9"/>
-        <v>1118.1066719838734</v>
-      </c>
-      <c r="Z13" s="5">
-        <f t="shared" si="9"/>
-        <v>1386.8719491579625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC13" s="5">
+        <v>345</v>
+      </c>
+      <c r="AD13" s="5">
+        <f t="shared" ref="AD13:AI13" si="16">+AD11*0.035</f>
+        <v>469.15085000000005</v>
+      </c>
+      <c r="AE13" s="5">
+        <f t="shared" si="16"/>
+        <v>568.97135575000004</v>
+      </c>
+      <c r="AF13" s="5">
+        <f t="shared" si="16"/>
+        <v>680.59057049374996</v>
+      </c>
+      <c r="AG13" s="5">
+        <f t="shared" si="16"/>
+        <v>814.47925177609386</v>
+      </c>
+      <c r="AH13" s="5">
+        <f t="shared" si="16"/>
+        <v>975.08993349449611</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" si="16"/>
+        <v>1167.7656223406586</v>
+      </c>
+      <c r="AJ13" s="5">
+        <f t="shared" ref="AJ13" si="17">+AJ11*0.035</f>
+        <v>1398.9178915097348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:J14" si="10">+C12+C13</f>
+        <f t="shared" ref="C14:J14" si="18">+C12+C13</f>
         <v>369</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>389</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>415</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>438</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>471</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>496</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>516</v>
       </c>
       <c r="K14" s="5">
@@ -1786,94 +2400,125 @@
         <v>520</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ref="L14:N14" si="11">+L12+L13</f>
+        <f t="shared" ref="L14:N14" si="19">+L12+L13</f>
         <v>552</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5">
-        <f t="shared" ref="Q14:Z14" si="12">+Q12+Q13</f>
+      <c r="Q14" s="19">
+        <v>104</v>
+      </c>
+      <c r="R14" s="19">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="S14" s="19">
+        <v>248.8</v>
+      </c>
+      <c r="T14" s="19">
+        <v>329.4</v>
+      </c>
+      <c r="U14" s="19">
+        <v>399</v>
+      </c>
+      <c r="V14" s="19">
+        <v>499.9</v>
+      </c>
+      <c r="W14" s="19">
+        <v>622.70000000000005</v>
+      </c>
+      <c r="X14" s="19">
+        <v>796</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>987</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" ref="Z14:AI14" si="20">+Z12+Z13</f>
         <v>1353</v>
       </c>
-      <c r="R14" s="5">
-        <f t="shared" si="12"/>
+      <c r="AA14" s="5">
+        <f t="shared" si="20"/>
         <v>1573</v>
       </c>
-      <c r="S14" s="5">
-        <f t="shared" si="12"/>
+      <c r="AB14" s="5">
+        <f t="shared" si="20"/>
         <v>1921</v>
       </c>
-      <c r="T14" s="5">
-        <f t="shared" si="12"/>
-        <v>2264.8758750000002</v>
-      </c>
-      <c r="U14" s="5">
-        <f t="shared" si="12"/>
-        <v>2793.7383343750002</v>
-      </c>
-      <c r="V14" s="5">
-        <f t="shared" si="12"/>
-        <v>3450.932673984375</v>
-      </c>
-      <c r="W14" s="5">
-        <f t="shared" si="12"/>
-        <v>4268.0022972402348</v>
-      </c>
-      <c r="X14" s="5">
-        <f t="shared" si="12"/>
-        <v>5284.2965982493652</v>
-      </c>
-      <c r="Y14" s="5">
-        <f t="shared" si="12"/>
-        <v>6548.9105073341152</v>
-      </c>
-      <c r="Z14" s="5">
-        <f t="shared" si="12"/>
-        <v>8123.1071307823513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC14" s="5">
+        <f t="shared" si="20"/>
+        <v>2287</v>
+      </c>
+      <c r="AD14" s="5">
+        <f t="shared" si="20"/>
+        <v>2747.88355</v>
+      </c>
+      <c r="AE14" s="5">
+        <f t="shared" si="20"/>
+        <v>3332.54651225</v>
+      </c>
+      <c r="AF14" s="5">
+        <f t="shared" si="20"/>
+        <v>3986.3161986062501</v>
+      </c>
+      <c r="AG14" s="5">
+        <f t="shared" si="20"/>
+        <v>4770.5213318314072</v>
+      </c>
+      <c r="AH14" s="5">
+        <f t="shared" si="20"/>
+        <v>5711.2410390391915</v>
+      </c>
+      <c r="AI14" s="5">
+        <f t="shared" si="20"/>
+        <v>6839.7700737095711</v>
+      </c>
+      <c r="AJ14" s="5">
+        <f t="shared" ref="AJ14" si="21">+AJ12+AJ13</f>
+        <v>8193.6619359855904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:J15" si="13">+C11-C14</f>
+        <f t="shared" ref="C15:J15" si="22">+C11-C14</f>
         <v>1353</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1363</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1431</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1525</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1658</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1679</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1792</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>1921</v>
       </c>
       <c r="K15" s="5">
@@ -1881,63 +2526,103 @@
         <v>2083</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" ref="L15:N15" si="14">+L11-L14</f>
+        <f t="shared" ref="L15:N15" si="23">+L11-L14</f>
         <v>2075</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5">
-        <f t="shared" ref="Q15:Z15" si="15">+Q11-Q14</f>
+        <f>+Q11-Q14</f>
+        <v>139.69999999999999</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" ref="R15:Y15" si="24">+R11-R14</f>
+        <v>269.3</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="24"/>
+        <v>433.8</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="24"/>
+        <v>676.1</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="24"/>
+        <v>992</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="24"/>
+        <v>1418.6</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="24"/>
+        <v>1986.1000000000001</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="24"/>
+        <v>2664</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="24"/>
+        <v>3532</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" ref="Z15:AI15" si="25">+Z11-Z14</f>
         <v>4543</v>
       </c>
-      <c r="R15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AA15" s="5">
+        <f t="shared" si="25"/>
         <v>5672</v>
       </c>
-      <c r="S15" s="5">
-        <f t="shared" si="15"/>
+      <c r="AB15" s="5">
+        <f t="shared" si="25"/>
         <v>7050</v>
       </c>
-      <c r="T15" s="5">
-        <f t="shared" si="15"/>
-        <v>8783.2991249999995</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="15"/>
-        <v>10834.253540624999</v>
-      </c>
-      <c r="V15" s="5">
-        <f t="shared" si="15"/>
-        <v>13382.885247890623</v>
-      </c>
-      <c r="W15" s="5">
-        <f t="shared" si="15"/>
-        <v>16551.521103931642</v>
-      </c>
-      <c r="X15" s="5">
-        <f t="shared" si="15"/>
-        <v>20492.759978576803</v>
-      </c>
-      <c r="Y15" s="5">
-        <f t="shared" si="15"/>
-        <v>25396.994406490834</v>
-      </c>
-      <c r="Z15" s="5">
-        <f t="shared" si="15"/>
-        <v>31501.805702302285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC15" s="5">
+        <f t="shared" si="25"/>
+        <v>8697</v>
+      </c>
+      <c r="AD15" s="5">
+        <f t="shared" si="25"/>
+        <v>10656.426449999999</v>
+      </c>
+      <c r="AE15" s="5">
+        <f t="shared" si="25"/>
+        <v>12923.777937749997</v>
+      </c>
+      <c r="AF15" s="5">
+        <f t="shared" si="25"/>
+        <v>15459.128672643748</v>
+      </c>
+      <c r="AG15" s="5">
+        <f t="shared" si="25"/>
+        <v>18500.314433199841</v>
+      </c>
+      <c r="AH15" s="5">
+        <f t="shared" si="25"/>
+        <v>22148.471346517836</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" si="25"/>
+        <v>26524.961993166384</v>
+      </c>
+      <c r="AJ15" s="5">
+        <f t="shared" ref="AJ15" si="26">+AJ11-AJ14</f>
+        <v>31775.420678578259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5">
         <v>673</v>
@@ -1973,47 +2658,59 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5">
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5">
         <v>2292</v>
       </c>
-      <c r="R16" s="5">
+      <c r="AA16" s="5">
         <v>2814</v>
       </c>
-      <c r="S16" s="5">
+      <c r="AB16" s="5">
         <v>3301</v>
       </c>
-      <c r="T16" s="5">
-        <f>+T11*0.35</f>
-        <v>3866.8612499999995</v>
-      </c>
-      <c r="U16" s="5">
-        <f>+U11*0.34</f>
-        <v>4633.5172375000002</v>
-      </c>
-      <c r="V16" s="5">
-        <f>+V11*0.33</f>
-        <v>5555.1599142187497</v>
-      </c>
-      <c r="W16" s="5">
-        <f>+W11*0.32</f>
-        <v>6662.2474883750001</v>
-      </c>
-      <c r="X16" s="5">
-        <f>+X11*0.31</f>
-        <v>7990.8875388161123</v>
-      </c>
-      <c r="Y16" s="5">
-        <f>+Y11*0.3</f>
-        <v>9583.7714741474847</v>
-      </c>
-      <c r="Z16" s="5">
-        <f t="shared" ref="Z16" si="16">+Z11*0.3</f>
-        <v>11887.473849925391</v>
-      </c>
-    </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC16" s="5">
+        <v>3854</v>
+      </c>
+      <c r="AD16" s="5">
+        <f>+AD11*0.33</f>
+        <v>4423.4223000000002</v>
+      </c>
+      <c r="AE16" s="5">
+        <f>+AE11*0.3</f>
+        <v>4876.8973349999997</v>
+      </c>
+      <c r="AF16" s="5">
+        <f t="shared" ref="AF16:AI16" si="27">+AF11*0.3</f>
+        <v>5833.6334613749996</v>
+      </c>
+      <c r="AG16" s="5">
+        <f t="shared" si="27"/>
+        <v>6981.2507295093747</v>
+      </c>
+      <c r="AH16" s="5">
+        <f t="shared" si="27"/>
+        <v>8357.9137156671077</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" si="27"/>
+        <v>10009.419620062787</v>
+      </c>
+      <c r="AJ16" s="5">
+        <f t="shared" ref="AJ16" si="28">+AJ11*0.3</f>
+        <v>11990.724784369155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5">
         <v>414</v>
@@ -2049,47 +2746,77 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5">
+      <c r="Q17" s="19">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="R17" s="19">
+        <v>78.7</v>
+      </c>
+      <c r="S17" s="19">
+        <v>148.30000000000001</v>
+      </c>
+      <c r="T17" s="19">
+        <v>217.4</v>
+      </c>
+      <c r="U17" s="19">
+        <v>285.2</v>
+      </c>
+      <c r="V17" s="19">
+        <v>377.5</v>
+      </c>
+      <c r="W17" s="19">
+        <v>529.5</v>
+      </c>
+      <c r="X17" s="19">
+        <v>749</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>1024</v>
+      </c>
+      <c r="Z17" s="5">
         <v>1397</v>
       </c>
-      <c r="R17" s="5">
+      <c r="AA17" s="5">
         <v>1768</v>
       </c>
-      <c r="S17" s="5">
+      <c r="AB17" s="5">
         <v>2124</v>
       </c>
-      <c r="T17" s="5">
-        <f>+T11*0.23</f>
-        <v>2541.08025</v>
-      </c>
-      <c r="U17" s="5">
-        <f>+U11*0.22</f>
-        <v>2998.1582125</v>
-      </c>
-      <c r="V17" s="5">
-        <f>+V11*0.21</f>
-        <v>3535.1017635937492</v>
-      </c>
-      <c r="W17" s="5">
-        <f>+W11*0.205</f>
-        <v>4268.0022972402339</v>
-      </c>
-      <c r="X17" s="5">
-        <f>+X11*0.2</f>
-        <v>5155.4113153652343</v>
-      </c>
-      <c r="Y17" s="5">
-        <f t="shared" ref="Y17:Z17" si="17">+Y11*0.2</f>
-        <v>6389.1809827649904</v>
-      </c>
-      <c r="Z17" s="5">
-        <f t="shared" si="17"/>
-        <v>7924.9825666169272</v>
-      </c>
-    </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC17" s="5">
+        <v>2543</v>
+      </c>
+      <c r="AD17" s="5">
+        <f>+AD11*0.19</f>
+        <v>2546.8188999999998</v>
+      </c>
+      <c r="AE17" s="5">
+        <f>+AE11*0.16</f>
+        <v>2601.0119119999999</v>
+      </c>
+      <c r="AF17" s="5">
+        <f>+AF11*0.14</f>
+        <v>2722.3622819749999</v>
+      </c>
+      <c r="AG17" s="5">
+        <f>+AG11*0.13</f>
+        <v>3025.2086494540627</v>
+      </c>
+      <c r="AH17" s="5">
+        <f>+AH11*0.13</f>
+        <v>3621.7626101224137</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" ref="AI17:AJ17" si="29">+AI11*0.13</f>
+        <v>4337.4151686938749</v>
+      </c>
+      <c r="AJ17" s="5">
+        <f t="shared" si="29"/>
+        <v>5195.9807398933008</v>
+      </c>
+    </row>
+    <row r="18" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="5">
         <v>179</v>
@@ -2125,78 +2852,90 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5">
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5">
         <v>597</v>
       </c>
-      <c r="R18" s="5">
+      <c r="AA18" s="5">
         <v>735</v>
       </c>
-      <c r="S18" s="5">
+      <c r="AB18" s="5">
         <v>863</v>
       </c>
-      <c r="T18" s="5">
-        <f>+T11*0.11</f>
-        <v>1215.29925</v>
-      </c>
-      <c r="U18" s="5">
-        <f>+U11*0.105</f>
-        <v>1430.939146875</v>
-      </c>
-      <c r="V18" s="5">
-        <f>+V11*0.1</f>
-        <v>1683.3817921874997</v>
-      </c>
-      <c r="W18" s="5">
-        <f>+W11*0.095</f>
-        <v>1977.8547231113282</v>
-      </c>
-      <c r="X18" s="5">
-        <f t="shared" ref="X18:Y18" si="18">+X11*0.095</f>
-        <v>2448.8203747984862</v>
-      </c>
-      <c r="Y18" s="5">
-        <f t="shared" si="18"/>
-        <v>3034.8609668133704</v>
-      </c>
-      <c r="Z18" s="5">
-        <f>+Z11*0.09</f>
-        <v>3566.2421549776172</v>
-      </c>
-    </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC18" s="5">
+        <v>936</v>
+      </c>
+      <c r="AD18" s="5">
+        <f>+AD11*0.09</f>
+        <v>1206.3878999999999</v>
+      </c>
+      <c r="AE18" s="5">
+        <f>+AE11*0.085</f>
+        <v>1381.78757825</v>
+      </c>
+      <c r="AF18" s="5">
+        <f>+AF11*0.08</f>
+        <v>1555.6355896999999</v>
+      </c>
+      <c r="AG18" s="5">
+        <f>+AG11*0.07</f>
+        <v>1628.9585035521877</v>
+      </c>
+      <c r="AH18" s="5">
+        <f t="shared" ref="AH18:AI18" si="30">+AH11*0.07</f>
+        <v>1950.1798669889922</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="30"/>
+        <v>2335.5312446813173</v>
+      </c>
+      <c r="AJ18" s="5">
+        <f t="shared" ref="AJ18" si="31">+AJ11*0.07</f>
+        <v>2797.8357830194695</v>
+      </c>
+    </row>
+    <row r="19" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ref="C19:J19" si="19">+C16+C17+C18</f>
+        <f t="shared" ref="C19:J19" si="32">+C16+C17+C18</f>
         <v>1266</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1341</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1340</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1370</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1514</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1562</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1561</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="32"/>
         <v>1651</v>
       </c>
       <c r="K19" s="5">
@@ -2204,78 +2943,109 @@
         <v>1751</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" ref="L19:N19" si="20">+L16+L17+L18</f>
+        <f t="shared" ref="L19:N19" si="33">+L16+L17+L18</f>
         <v>1835</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5">
-        <f t="shared" ref="Q19:Z19" si="21">+Q16+Q17+Q18</f>
+      <c r="Q19" s="19">
+        <v>177.3</v>
+      </c>
+      <c r="R19" s="19">
+        <v>335.7</v>
+      </c>
+      <c r="S19" s="19">
+        <v>585.6</v>
+      </c>
+      <c r="T19" s="19">
+        <v>842.4</v>
+      </c>
+      <c r="U19" s="19">
+        <v>1374.2</v>
+      </c>
+      <c r="V19" s="19">
+        <v>1483</v>
+      </c>
+      <c r="W19" s="19">
+        <v>2028.6</v>
+      </c>
+      <c r="X19" s="19">
+        <v>2622</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>3333</v>
+      </c>
+      <c r="Z19" s="5">
+        <f t="shared" ref="Z19:AI19" si="34">+Z16+Z17+Z18</f>
         <v>4286</v>
       </c>
-      <c r="R19" s="5">
-        <f t="shared" si="21"/>
+      <c r="AA19" s="5">
+        <f t="shared" si="34"/>
         <v>5317</v>
       </c>
-      <c r="S19" s="5">
-        <f t="shared" si="21"/>
+      <c r="AB19" s="5">
+        <f t="shared" si="34"/>
         <v>6288</v>
       </c>
-      <c r="T19" s="5">
-        <f t="shared" si="21"/>
-        <v>7623.240749999999</v>
-      </c>
-      <c r="U19" s="5">
-        <f t="shared" si="21"/>
-        <v>9062.6145968750006</v>
-      </c>
-      <c r="V19" s="5">
-        <f t="shared" si="21"/>
-        <v>10773.643469999999</v>
-      </c>
-      <c r="W19" s="5">
-        <f t="shared" si="21"/>
-        <v>12908.104508726561</v>
-      </c>
-      <c r="X19" s="5">
-        <f t="shared" si="21"/>
-        <v>15595.119228979833</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="21"/>
-        <v>19007.813423725845</v>
-      </c>
-      <c r="Z19" s="5">
-        <f t="shared" si="21"/>
-        <v>23378.698571519933</v>
-      </c>
-    </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC19" s="5">
+        <f t="shared" si="34"/>
+        <v>7333</v>
+      </c>
+      <c r="AD19" s="5">
+        <f t="shared" si="34"/>
+        <v>8176.6291000000001</v>
+      </c>
+      <c r="AE19" s="5">
+        <f t="shared" si="34"/>
+        <v>8859.6968252499992</v>
+      </c>
+      <c r="AF19" s="5">
+        <f t="shared" si="34"/>
+        <v>10111.631333049998</v>
+      </c>
+      <c r="AG19" s="5">
+        <f t="shared" si="34"/>
+        <v>11635.417882515627</v>
+      </c>
+      <c r="AH19" s="5">
+        <f t="shared" si="34"/>
+        <v>13929.856192778514</v>
+      </c>
+      <c r="AI19" s="5">
+        <f t="shared" si="34"/>
+        <v>16682.366033437978</v>
+      </c>
+      <c r="AJ19" s="5">
+        <f t="shared" ref="AJ19" si="35">+AJ16+AJ17+AJ18</f>
+        <v>19984.541307281925</v>
+      </c>
+    </row>
+    <row r="20" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:F20" si="22">+C15-C19</f>
+        <f t="shared" ref="C20:F20" si="36">+C15-C19</f>
         <v>87</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>91</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="36"/>
         <v>155</v>
       </c>
       <c r="G20" s="6">
@@ -2283,79 +3053,119 @@
         <v>144</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H20:K20" si="23">+H15-H19</f>
+        <f t="shared" ref="H20:K20" si="37">+H15-H19</f>
         <v>117</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>231</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>270</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="37"/>
         <v>332</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20" si="24">+L15-L19</f>
+        <f t="shared" ref="L20" si="38">+L15-L19</f>
         <v>240</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" ref="M20" si="25">+M15-M19</f>
+        <f t="shared" ref="M20" si="39">+M15-M19</f>
         <v>0</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" ref="N20" si="26">+N15-N19</f>
+        <f t="shared" ref="N20" si="40">+N15-N19</f>
         <v>0</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="6">
-        <f t="shared" ref="Q20:Z20" si="27">+Q15-Q19</f>
+      <c r="Q20" s="5">
+        <f>+Q15-Q19</f>
+        <v>-37.600000000000023</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" ref="R20:Y20" si="41">+R15-R19</f>
+        <v>-66.399999999999977</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="41"/>
+        <v>-151.80000000000001</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="41"/>
+        <v>-166.29999999999995</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" si="41"/>
+        <v>-382.20000000000005</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="41"/>
+        <v>-64.400000000000091</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="41"/>
+        <v>-42.499999999999773</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="41"/>
+        <v>42</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="41"/>
+        <v>199</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" ref="Z20:AI20" si="42">+Z15-Z19</f>
         <v>257</v>
       </c>
-      <c r="R20" s="6">
-        <f t="shared" si="27"/>
+      <c r="AA20" s="6">
+        <f t="shared" si="42"/>
         <v>355</v>
       </c>
-      <c r="S20" s="6">
-        <f t="shared" si="27"/>
+      <c r="AB20" s="6">
+        <f t="shared" si="42"/>
         <v>762</v>
       </c>
-      <c r="T20" s="6">
-        <f t="shared" si="27"/>
-        <v>1160.0583750000005</v>
-      </c>
-      <c r="U20" s="6">
-        <f t="shared" si="27"/>
-        <v>1771.6389437499984</v>
-      </c>
-      <c r="V20" s="6">
-        <f t="shared" si="27"/>
-        <v>2609.2417778906238</v>
-      </c>
-      <c r="W20" s="6">
-        <f t="shared" si="27"/>
-        <v>3643.4165952050807</v>
-      </c>
-      <c r="X20" s="6">
-        <f t="shared" si="27"/>
-        <v>4897.6407495969706</v>
-      </c>
-      <c r="Y20" s="6">
-        <f t="shared" si="27"/>
-        <v>6389.1809827649886</v>
-      </c>
-      <c r="Z20" s="6">
-        <f t="shared" si="27"/>
-        <v>8123.1071307823513</v>
-      </c>
-    </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC20" s="6">
+        <f t="shared" si="42"/>
+        <v>1364</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="42"/>
+        <v>2479.7973499999989</v>
+      </c>
+      <c r="AE20" s="6">
+        <f t="shared" si="42"/>
+        <v>4064.0811124999982</v>
+      </c>
+      <c r="AF20" s="6">
+        <f t="shared" si="42"/>
+        <v>5347.4973395937504</v>
+      </c>
+      <c r="AG20" s="6">
+        <f t="shared" si="42"/>
+        <v>6864.8965506842142</v>
+      </c>
+      <c r="AH20" s="6">
+        <f t="shared" si="42"/>
+        <v>8218.6151537393216</v>
+      </c>
+      <c r="AI20" s="6">
+        <f t="shared" si="42"/>
+        <v>9842.5959597284054</v>
+      </c>
+      <c r="AJ20" s="6">
+        <f t="shared" ref="AJ20" si="43">+AJ15-AJ19</f>
+        <v>11790.879371296334</v>
+      </c>
+    </row>
+    <row r="21" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5">
         <v>-6</v>
@@ -2391,47 +3201,59 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5">
         <v>20</v>
       </c>
-      <c r="R21" s="5">
+      <c r="AA21" s="5">
         <v>82</v>
       </c>
-      <c r="S21" s="5">
+      <c r="AB21" s="5">
         <v>302</v>
       </c>
-      <c r="T21" s="5">
-        <f>+L50*AC4</f>
-        <v>369.85</v>
-      </c>
-      <c r="U21" s="5">
-        <f>+T50*$AC$4</f>
-        <v>430.2813808125</v>
-      </c>
-      <c r="V21" s="5">
-        <f t="shared" ref="V21:Z21" si="28">+U50*$AC$4</f>
-        <v>517.25723363271868</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" si="28"/>
-        <v>640.75394458789071</v>
-      </c>
-      <c r="X21" s="5">
-        <f t="shared" si="28"/>
-        <v>809.97868090971315</v>
-      </c>
-      <c r="Y21" s="5">
-        <f t="shared" si="28"/>
-        <v>1035.4296484147271</v>
-      </c>
-      <c r="Z21" s="5">
-        <f t="shared" si="28"/>
-        <v>1328.7017683463259</v>
-      </c>
-    </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC21" s="5">
+        <v>419</v>
+      </c>
+      <c r="AD21" s="5">
+        <f t="shared" ref="AD21:AI21" si="44">+AC50*$AM$4</f>
+        <v>1257.5999999999999</v>
+      </c>
+      <c r="AE21" s="5">
+        <f t="shared" si="44"/>
+        <v>1700.4815859749999</v>
+      </c>
+      <c r="AF21" s="5">
+        <f t="shared" si="44"/>
+        <v>2383.5822657442868</v>
+      </c>
+      <c r="AG21" s="5">
+        <f t="shared" si="44"/>
+        <v>3299.7151989768445</v>
+      </c>
+      <c r="AH21" s="5">
+        <f t="shared" si="44"/>
+        <v>4504.2216913116799</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="44"/>
+        <v>6011.8778574502239</v>
+      </c>
+      <c r="AJ21" s="5">
+        <f t="shared" ref="AJ21" si="45">+AI50*$AM$4</f>
+        <v>7890.633004785891</v>
+      </c>
+    </row>
+    <row r="22" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="5">
         <v>4</v>
@@ -2467,57 +3289,69 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5">
-        <v>-28</v>
-      </c>
-      <c r="R22" s="5">
-        <v>-38</v>
-      </c>
-      <c r="S22" s="5">
-        <v>-56</v>
-      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-    </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="Z22" s="5">
+        <v>-28</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>-38</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>-56</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>-45</v>
+      </c>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" ref="C23:J23" si="29">+C20+C21+C22</f>
+        <f t="shared" ref="C23:J23" si="46">+C20+C21+C22</f>
         <v>85</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>29</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>102</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>183</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>188</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>174</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>299</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>347</v>
       </c>
       <c r="K23" s="5">
@@ -2525,63 +3359,76 @@
         <v>425</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23:N23" si="30">+L20+L21+L22</f>
+        <f t="shared" ref="L23:N23" si="47">+L20+L21+L22</f>
         <v>334</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5">
-        <f t="shared" ref="Q23:Z23" si="31">+Q20+Q21+Q22</f>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5">
+        <f t="shared" ref="Z23:AI23" si="48">+Z20+Z21+Z22</f>
         <v>249</v>
       </c>
-      <c r="R23" s="5">
-        <f t="shared" si="31"/>
+      <c r="AA23" s="5">
+        <f t="shared" si="48"/>
         <v>399</v>
       </c>
-      <c r="S23" s="5">
-        <f t="shared" si="31"/>
+      <c r="AB23" s="5">
+        <f t="shared" si="48"/>
         <v>1008</v>
       </c>
-      <c r="T23" s="5">
-        <f t="shared" si="31"/>
-        <v>1529.9083750000004</v>
-      </c>
-      <c r="U23" s="5">
-        <f t="shared" si="31"/>
-        <v>2201.9203245624985</v>
-      </c>
-      <c r="V23" s="5">
-        <f t="shared" si="31"/>
-        <v>3126.4990115233422</v>
-      </c>
-      <c r="W23" s="5">
-        <f t="shared" si="31"/>
-        <v>4284.1705397929718</v>
-      </c>
-      <c r="X23" s="5">
-        <f t="shared" si="31"/>
-        <v>5707.6194305066838</v>
-      </c>
-      <c r="Y23" s="5">
-        <f t="shared" si="31"/>
-        <v>7424.6106311797157</v>
-      </c>
-      <c r="Z23" s="5">
-        <f t="shared" si="31"/>
-        <v>9451.8088991286768</v>
-      </c>
-    </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC23" s="5">
+        <f t="shared" si="48"/>
+        <v>1738</v>
+      </c>
+      <c r="AD23" s="5">
+        <f t="shared" si="48"/>
+        <v>3737.3973499999988</v>
+      </c>
+      <c r="AE23" s="5">
+        <f t="shared" si="48"/>
+        <v>5764.5626984749979</v>
+      </c>
+      <c r="AF23" s="5">
+        <f t="shared" si="48"/>
+        <v>7731.0796053380373</v>
+      </c>
+      <c r="AG23" s="5">
+        <f t="shared" si="48"/>
+        <v>10164.611749661059</v>
+      </c>
+      <c r="AH23" s="5">
+        <f t="shared" si="48"/>
+        <v>12722.836845051002</v>
+      </c>
+      <c r="AI23" s="5">
+        <f t="shared" si="48"/>
+        <v>15854.47381717863</v>
+      </c>
+      <c r="AJ23" s="5">
+        <f t="shared" ref="AJ23" si="49">+AJ20+AJ21+AJ22</f>
+        <v>19681.512376082224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="5">
         <v>10</v>
@@ -2617,78 +3464,90 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5">
         <v>19</v>
       </c>
-      <c r="R24" s="5">
+      <c r="AA24" s="5">
         <v>74</v>
       </c>
-      <c r="S24" s="5">
+      <c r="AB24" s="5">
         <v>-723</v>
       </c>
-      <c r="T24" s="5">
-        <f>+T23*0.21</f>
-        <v>321.28075875000007</v>
-      </c>
-      <c r="U24" s="5">
-        <f t="shared" ref="U24:Z24" si="32">+U23*0.21</f>
-        <v>462.40326815812466</v>
-      </c>
-      <c r="V24" s="5">
-        <f t="shared" si="32"/>
-        <v>656.56479241990189</v>
-      </c>
-      <c r="W24" s="5">
-        <f t="shared" si="32"/>
-        <v>899.67581335652403</v>
-      </c>
-      <c r="X24" s="5">
-        <f t="shared" si="32"/>
-        <v>1198.6000804064035</v>
-      </c>
-      <c r="Y24" s="5">
-        <f t="shared" si="32"/>
-        <v>1559.1682325477402</v>
-      </c>
-      <c r="Z24" s="5">
-        <f t="shared" si="32"/>
-        <v>1984.879868817022</v>
-      </c>
-    </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC24" s="5">
+        <v>313</v>
+      </c>
+      <c r="AD24" s="5">
+        <f t="shared" ref="AD24:AI24" si="50">+AD23*0.21</f>
+        <v>784.85344349999968</v>
+      </c>
+      <c r="AE24" s="5">
+        <f t="shared" si="50"/>
+        <v>1210.5581666797495</v>
+      </c>
+      <c r="AF24" s="5">
+        <f t="shared" si="50"/>
+        <v>1623.5267171209878</v>
+      </c>
+      <c r="AG24" s="5">
+        <f t="shared" si="50"/>
+        <v>2134.5684674288223</v>
+      </c>
+      <c r="AH24" s="5">
+        <f t="shared" si="50"/>
+        <v>2671.7957374607104</v>
+      </c>
+      <c r="AI24" s="5">
+        <f t="shared" si="50"/>
+        <v>3329.4395016075123</v>
+      </c>
+      <c r="AJ24" s="5">
+        <f t="shared" ref="AJ24" si="51">+AJ23*0.21</f>
+        <v>4133.1175989772673</v>
+      </c>
+    </row>
+    <row r="25" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:J25" si="33">+C23-C24</f>
+        <f t="shared" ref="C25:J25" si="52">+C23-C24</f>
         <v>75</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>20</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>80</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>150</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>150</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>-696</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>242</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="52"/>
         <v>295</v>
       </c>
       <c r="K25" s="6">
@@ -2696,227 +3555,237 @@
         <v>347</v>
       </c>
       <c r="L25" s="6">
-        <f t="shared" ref="L25:N25" si="34">+L23-L24</f>
+        <f t="shared" ref="L25:N25" si="53">+L23-L24</f>
         <v>262</v>
       </c>
       <c r="M25" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N25" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="6">
-        <f t="shared" ref="Q25:Z25" si="35">+Q23-Q24</f>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6">
+        <f t="shared" ref="Z25:AI25" si="54">+Z23-Z24</f>
         <v>230</v>
       </c>
-      <c r="R25" s="6">
-        <f t="shared" si="35"/>
+      <c r="AA25" s="6">
+        <f t="shared" si="54"/>
         <v>325</v>
       </c>
-      <c r="S25" s="6">
-        <f t="shared" si="35"/>
+      <c r="AB25" s="6">
+        <f t="shared" si="54"/>
         <v>1731</v>
       </c>
-      <c r="T25" s="6">
-        <f t="shared" si="35"/>
-        <v>1208.6276162500003</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="35"/>
-        <v>1739.5170564043738</v>
-      </c>
-      <c r="V25" s="6">
-        <f t="shared" si="35"/>
-        <v>2469.9342191034402</v>
-      </c>
-      <c r="W25" s="6">
-        <f t="shared" si="35"/>
-        <v>3384.4947264364478</v>
-      </c>
-      <c r="X25" s="6">
-        <f t="shared" si="35"/>
-        <v>4509.0193501002805</v>
-      </c>
-      <c r="Y25" s="6">
-        <f t="shared" si="35"/>
-        <v>5865.4423986319753</v>
-      </c>
-      <c r="Z25" s="6">
-        <f t="shared" si="35"/>
-        <v>7466.929030311655</v>
-      </c>
-      <c r="AA25" s="6">
-        <f>+Z25*(1+$AC$3)</f>
-        <v>7690.9369012210045</v>
-      </c>
-      <c r="AB25" s="6">
-        <f t="shared" ref="AB25:BO25" si="36">+AA25*(1+$AC$3)</f>
-        <v>7921.6650082576352</v>
-      </c>
       <c r="AC25" s="6">
-        <f t="shared" si="36"/>
-        <v>8159.3149585053643</v>
+        <f t="shared" si="54"/>
+        <v>1425</v>
       </c>
       <c r="AD25" s="6">
-        <f t="shared" si="36"/>
-        <v>8404.0944072605253</v>
+        <f t="shared" si="54"/>
+        <v>2952.5439064999991</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="36"/>
-        <v>8656.2172394783411</v>
+        <f t="shared" si="54"/>
+        <v>4554.0045317952481</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="36"/>
-        <v>8915.9037566626921</v>
+        <f t="shared" si="54"/>
+        <v>6107.5528882170493</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="36"/>
-        <v>9183.3808693625724</v>
+        <f t="shared" si="54"/>
+        <v>8030.0432822322364</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="36"/>
-        <v>9458.882295443449</v>
+        <f t="shared" si="54"/>
+        <v>10051.041107590292</v>
       </c>
       <c r="AI25" s="6">
-        <f t="shared" si="36"/>
-        <v>9742.6487643067521</v>
+        <f t="shared" si="54"/>
+        <v>12525.034315571118</v>
       </c>
       <c r="AJ25" s="6">
-        <f t="shared" si="36"/>
-        <v>10034.928227235954</v>
-      </c>
-      <c r="AK25" s="6">
-        <f t="shared" si="36"/>
-        <v>10335.976074053033</v>
-      </c>
+        <f t="shared" ref="AJ25" si="55">+AJ23-AJ24</f>
+        <v>15548.394777104957</v>
+      </c>
+      <c r="AK25" s="6"/>
       <c r="AL25" s="6">
-        <f t="shared" si="36"/>
-        <v>10646.055356274625</v>
+        <f>+AJ25*(1+$AM$3)</f>
+        <v>16325.814515960206</v>
       </c>
       <c r="AM25" s="6">
-        <f t="shared" si="36"/>
-        <v>10965.437016962864</v>
+        <f t="shared" ref="AM25:BY25" si="56">+AL25*(1+$AM$3)</f>
+        <v>17142.105241758218</v>
       </c>
       <c r="AN25" s="6">
-        <f t="shared" si="36"/>
-        <v>11294.40012747175</v>
+        <f t="shared" si="56"/>
+        <v>17999.21050384613</v>
       </c>
       <c r="AO25" s="6">
-        <f t="shared" si="36"/>
-        <v>11633.232131295903</v>
+        <f t="shared" si="56"/>
+        <v>18899.171029038436</v>
       </c>
       <c r="AP25" s="6">
-        <f t="shared" si="36"/>
-        <v>11982.229095234781</v>
+        <f t="shared" si="56"/>
+        <v>19844.12958049036</v>
       </c>
       <c r="AQ25" s="6">
-        <f t="shared" si="36"/>
-        <v>12341.695968091824</v>
+        <f t="shared" si="56"/>
+        <v>20836.336059514881</v>
       </c>
       <c r="AR25" s="6">
-        <f t="shared" si="36"/>
-        <v>12711.946847134579</v>
+        <f t="shared" si="56"/>
+        <v>21878.152862490624</v>
       </c>
       <c r="AS25" s="6">
-        <f t="shared" si="36"/>
-        <v>13093.305252548616</v>
+        <f t="shared" si="56"/>
+        <v>22972.060505615158</v>
       </c>
       <c r="AT25" s="6">
-        <f t="shared" si="36"/>
-        <v>13486.104410125075</v>
+        <f t="shared" si="56"/>
+        <v>24120.663530895916</v>
       </c>
       <c r="AU25" s="6">
-        <f t="shared" si="36"/>
-        <v>13890.687542428828</v>
+        <f t="shared" si="56"/>
+        <v>25326.696707440711</v>
       </c>
       <c r="AV25" s="6">
-        <f t="shared" si="36"/>
-        <v>14307.408168701693</v>
+        <f t="shared" si="56"/>
+        <v>26593.031542812747</v>
       </c>
       <c r="AW25" s="6">
-        <f t="shared" si="36"/>
-        <v>14736.630413762745</v>
+        <f t="shared" si="56"/>
+        <v>27922.683119953384</v>
       </c>
       <c r="AX25" s="6">
-        <f t="shared" si="36"/>
-        <v>15178.729326175628</v>
+        <f t="shared" si="56"/>
+        <v>29318.817275951056</v>
       </c>
       <c r="AY25" s="6">
-        <f t="shared" si="36"/>
-        <v>15634.091205960896</v>
+        <f t="shared" si="56"/>
+        <v>30784.75813974861</v>
       </c>
       <c r="AZ25" s="6">
-        <f t="shared" si="36"/>
-        <v>16103.113942139724</v>
+        <f t="shared" si="56"/>
+        <v>32323.996046736043</v>
       </c>
       <c r="BA25" s="6">
-        <f t="shared" si="36"/>
-        <v>16586.207360403914</v>
+        <f t="shared" si="56"/>
+        <v>33940.19584907285</v>
       </c>
       <c r="BB25" s="6">
-        <f t="shared" si="36"/>
-        <v>17083.793581216032</v>
+        <f t="shared" si="56"/>
+        <v>35637.205641526496</v>
       </c>
       <c r="BC25" s="6">
-        <f t="shared" si="36"/>
-        <v>17596.307388652513</v>
+        <f t="shared" si="56"/>
+        <v>37419.065923602822</v>
       </c>
       <c r="BD25" s="6">
-        <f t="shared" si="36"/>
-        <v>18124.196610312087</v>
+        <f t="shared" si="56"/>
+        <v>39290.019219782967</v>
       </c>
       <c r="BE25" s="6">
-        <f t="shared" si="36"/>
-        <v>18667.92250862145</v>
+        <f t="shared" si="56"/>
+        <v>41254.520180772117</v>
       </c>
       <c r="BF25" s="6">
-        <f t="shared" si="36"/>
-        <v>19227.960183880095</v>
+        <f t="shared" si="56"/>
+        <v>43317.246189810721</v>
       </c>
       <c r="BG25" s="6">
-        <f t="shared" si="36"/>
-        <v>19804.798989396499</v>
+        <f t="shared" si="56"/>
+        <v>45483.108499301263</v>
       </c>
       <c r="BH25" s="6">
-        <f t="shared" si="36"/>
-        <v>20398.942959078395</v>
+        <f t="shared" si="56"/>
+        <v>47757.263924266328</v>
       </c>
       <c r="BI25" s="6">
-        <f t="shared" si="36"/>
-        <v>21010.911247850749</v>
+        <f t="shared" si="56"/>
+        <v>50145.127120479643</v>
       </c>
       <c r="BJ25" s="6">
-        <f t="shared" si="36"/>
-        <v>21641.238585286272</v>
+        <f t="shared" si="56"/>
+        <v>52652.38347650363</v>
       </c>
       <c r="BK25" s="6">
-        <f t="shared" si="36"/>
-        <v>22290.475742844861</v>
+        <f t="shared" si="56"/>
+        <v>55285.002650328817</v>
       </c>
       <c r="BL25" s="6">
-        <f t="shared" si="36"/>
-        <v>22959.190015130207</v>
+        <f t="shared" si="56"/>
+        <v>58049.252782845258</v>
       </c>
       <c r="BM25" s="6">
-        <f t="shared" si="36"/>
-        <v>23647.965715584112</v>
+        <f t="shared" si="56"/>
+        <v>60951.715421987523</v>
       </c>
       <c r="BN25" s="6">
-        <f t="shared" si="36"/>
-        <v>24357.404687051636</v>
+        <f t="shared" si="56"/>
+        <v>63999.301193086903</v>
       </c>
       <c r="BO25" s="6">
-        <f t="shared" si="36"/>
-        <v>25088.126827663185</v>
-      </c>
-    </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>67199.266252741247</v>
+      </c>
+      <c r="BP25" s="6">
+        <f t="shared" si="56"/>
+        <v>70559.229565378308</v>
+      </c>
+      <c r="BQ25" s="6">
+        <f t="shared" si="56"/>
+        <v>74087.191043647224</v>
+      </c>
+      <c r="BR25" s="6">
+        <f t="shared" si="56"/>
+        <v>77791.550595829583</v>
+      </c>
+      <c r="BS25" s="6">
+        <f t="shared" si="56"/>
+        <v>81681.128125621064</v>
+      </c>
+      <c r="BT25" s="6">
+        <f t="shared" si="56"/>
+        <v>85765.184531902123</v>
+      </c>
+      <c r="BU25" s="6">
+        <f t="shared" si="56"/>
+        <v>90053.443758497233</v>
+      </c>
+      <c r="BV25" s="6">
+        <f t="shared" si="56"/>
+        <v>94556.115946422098</v>
+      </c>
+      <c r="BW25" s="6">
+        <f t="shared" si="56"/>
+        <v>99283.921743743209</v>
+      </c>
+      <c r="BX25" s="6">
+        <f t="shared" si="56"/>
+        <v>104248.11783093038</v>
+      </c>
+      <c r="BY25" s="6">
+        <f t="shared" si="56"/>
+        <v>109460.52372247691</v>
+      </c>
+    </row>
+    <row r="26" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="5">
         <v>202.8</v>
@@ -2952,57 +3821,68 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5">
-        <v>203.167</v>
-      </c>
-      <c r="R26" s="5">
-        <v>203.535</v>
-      </c>
-      <c r="S26" s="5">
-        <v>205.59100000000001</v>
-      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-    </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="Z26" s="5">
+        <v>203.167</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>203.535</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>205.59100000000001</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>208.423</v>
+      </c>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+    </row>
+    <row r="27" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:J27" si="37">+C25/C26</f>
+        <f t="shared" ref="C27:J27" si="57">+C25/C26</f>
         <v>0.36982248520710059</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9.8513432306494994E-2</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0.39385390973853024</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0.73891625615763545</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>-3.3893187761442602</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1.1721171729696218</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>1.4251207729468598</v>
       </c>
       <c r="K27" s="3">
@@ -3010,500 +3890,547 @@
         <v>1.6763285024154588</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" ref="L27:N27" si="38">+L25/L26</f>
+        <f t="shared" ref="L27:N27" si="58">+L25/L26</f>
         <v>1.2608337864956038</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N27" s="3" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="3">
-        <f t="shared" ref="Q27:Z27" si="39">+Q25/Q26</f>
+      <c r="Z27" s="3">
+        <f t="shared" ref="Z27:AI27" si="59">+Z25/Z26</f>
         <v>1.1320736143172858</v>
       </c>
-      <c r="R27" s="3">
-        <f t="shared" si="39"/>
+      <c r="AA27" s="3">
+        <f t="shared" si="59"/>
         <v>1.5967769671063945</v>
       </c>
-      <c r="S27" s="3">
-        <f t="shared" si="39"/>
+      <c r="AB27" s="3">
+        <f t="shared" si="59"/>
         <v>8.4196292639269217</v>
       </c>
-      <c r="T27" s="3" t="e">
-        <f t="shared" si="39"/>
+      <c r="AC27" s="3">
+        <f t="shared" si="59"/>
+        <v>6.8370573305249422</v>
+      </c>
+      <c r="AD27" s="3" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="3" t="e">
-        <f t="shared" si="39"/>
+      <c r="AE27" s="3" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V27" s="3" t="e">
-        <f t="shared" si="39"/>
+      <c r="AF27" s="3" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W27" s="3" t="e">
-        <f t="shared" si="39"/>
+      <c r="AG27" s="3" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X27" s="3" t="e">
-        <f t="shared" si="39"/>
+      <c r="AH27" s="3" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y27" s="3" t="e">
-        <f t="shared" si="39"/>
+      <c r="AI27" s="3" t="e">
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z27" s="3" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10">
-        <f t="shared" ref="K29:K31" si="40">+K2/G2-1</f>
+        <f t="shared" ref="K29:K31" si="60">+K2/G2-1</f>
         <v>0.21800595238095233</v>
       </c>
       <c r="L29" s="10">
         <f>+L2/H2-1</f>
         <v>0.21621621621621623</v>
       </c>
-      <c r="R29" s="10">
-        <f t="shared" ref="R29" si="41">+R2/Q2-1</f>
+      <c r="AA29" s="10">
+        <f t="shared" ref="AA29" si="61">+AA2/Z2-1</f>
         <v>0.2587953091684434</v>
       </c>
-      <c r="S29" s="10">
-        <f>+S2/R2-1</f>
+      <c r="AB29" s="10">
+        <f>+AB2/AA2-1</f>
         <v>0.20728350624603009</v>
       </c>
-    </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC29" s="10">
+        <f t="shared" ref="AC29:AC31" si="62">+AC2/AB2-1</f>
+        <v>0.21168011224131877</v>
+      </c>
+    </row>
+    <row r="30" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>0.27067669172932329</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" ref="L30:L31" si="42">+L3/H3-1</f>
+        <f t="shared" ref="L30:L31" si="63">+L3/H3-1</f>
         <v>0.20840950639853739</v>
       </c>
-      <c r="R30" s="10">
-        <f t="shared" ref="R30:S30" si="43">+R3/Q3-1</f>
+      <c r="AA30" s="10">
+        <f t="shared" ref="AA30:AB30" si="64">+AA3/Z3-1</f>
         <v>0.1463571889103803</v>
       </c>
-      <c r="S30" s="10">
-        <f t="shared" si="43"/>
+      <c r="AB30" s="10">
+        <f t="shared" si="64"/>
         <v>0.29246344206974118</v>
       </c>
-    </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC30" s="10">
+        <f t="shared" si="62"/>
+        <v>0.23324630113141853</v>
+      </c>
+    </row>
+    <row r="31" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" si="60"/>
         <v>0.31818181818181812</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" si="63"/>
         <v>0.28632478632478642</v>
       </c>
-      <c r="R31" s="10">
-        <f t="shared" ref="R31:S31" si="44">+R4/Q4-1</f>
+      <c r="AA31" s="10">
+        <f t="shared" ref="AA31:AB31" si="65">+AA4/Z4-1</f>
         <v>0.25463743676222594</v>
       </c>
-      <c r="S31" s="10">
-        <f t="shared" si="44"/>
+      <c r="AB31" s="10">
+        <f t="shared" si="65"/>
         <v>0.30510752688172049</v>
       </c>
-    </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.25">
+      <c r="AC31" s="10">
+        <f t="shared" si="62"/>
+        <v>0.27806385169927905</v>
+      </c>
+    </row>
+    <row r="32" spans="2:77" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10">
-        <f t="shared" ref="K32:K33" si="45">+K6/G6-1</f>
+        <f t="shared" ref="K32:K33" si="66">+K6/G6-1</f>
         <v>0.24636871508379898</v>
       </c>
       <c r="L32" s="10">
         <f>+L6/H6-1</f>
         <v>0.22440087145969501</v>
       </c>
-      <c r="R32" s="10">
-        <f t="shared" ref="R32" si="46">+R6/Q6-1</f>
+      <c r="AA32" s="10">
+        <f t="shared" ref="AA32" si="67">+AA6/Z6-1</f>
         <v>0.2447767308480131</v>
       </c>
-      <c r="S32" s="10">
-        <f>+S6/R6-1</f>
+      <c r="AB32" s="10">
+        <f>+AB6/AA6-1</f>
         <v>0.26361691624156647</v>
       </c>
-      <c r="T32" s="10">
-        <f t="shared" ref="T32:Z33" si="47">+T6/S6-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="U32" s="10">
-        <f t="shared" si="47"/>
-        <v>0.25</v>
-      </c>
-      <c r="V32" s="10">
-        <f t="shared" si="47"/>
-        <v>0.25</v>
-      </c>
-      <c r="W32" s="10">
-        <f t="shared" si="47"/>
-        <v>0.25</v>
-      </c>
-      <c r="X32" s="10">
-        <f t="shared" si="47"/>
-        <v>0.25</v>
-      </c>
-      <c r="Y32" s="10">
-        <f t="shared" si="47"/>
-        <v>0.25</v>
-      </c>
-      <c r="Z32" s="10">
-        <f t="shared" si="47"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC32" s="10">
+        <f t="shared" ref="AC32:AI33" si="68">+AC6/AB6-1</f>
+        <v>0.22698268003646316</v>
+      </c>
+      <c r="AD32" s="10">
+        <f t="shared" si="68"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="AE32" s="10">
+        <f t="shared" si="68"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="AF32" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AG32" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AH32" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI32" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="66"/>
         <v>0.24786324786324787</v>
       </c>
       <c r="L33" s="10">
         <f>+L7/H7-1</f>
         <v>0.23012552301255229</v>
       </c>
-      <c r="R33" s="10">
-        <f t="shared" ref="R33:S33" si="48">+R7/Q7-1</f>
+      <c r="AA33" s="10">
+        <f t="shared" ref="AA33:AB33" si="69">+AA7/Z7-1</f>
         <v>0.17800289435600569</v>
       </c>
-      <c r="S33" s="10">
-        <f t="shared" si="48"/>
+      <c r="AB33" s="10">
+        <f t="shared" si="69"/>
         <v>0.22972972972972983</v>
       </c>
-      <c r="T33" s="10">
-        <f t="shared" si="47"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="U33" s="10">
-        <f t="shared" si="47"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="V33" s="10">
-        <f t="shared" si="47"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="W33" s="10">
-        <f t="shared" si="47"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="X33" s="10">
-        <f t="shared" si="47"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="Y33" s="10">
-        <f t="shared" si="47"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="Z33" s="10">
-        <f t="shared" si="47"/>
-        <v>0.14999999999999991</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC33" s="10">
+        <f t="shared" si="68"/>
+        <v>0.22277722277722267</v>
+      </c>
+      <c r="AD33" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AE33" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AF33" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AG33" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AH33" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI33" s="10">
+        <f t="shared" si="68"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" ref="G34:K34" si="49">+G16/C16-1</f>
+        <f t="shared" ref="G34:K34" si="70">+G16/C16-1</f>
         <v>0.22288261515601793</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0.15235457063711921</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0.14634146341463405</v>
       </c>
       <c r="J34" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0.17313019390581719</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="70"/>
         <v>0.12150668286755772</v>
       </c>
       <c r="L34" s="10">
         <f>+L16/H16-1</f>
         <v>0.15384615384615374</v>
       </c>
-      <c r="R34" s="10">
-        <f t="shared" ref="R34" si="50">+R16/Q16-1</f>
+      <c r="AA34" s="10">
+        <f t="shared" ref="AA34" si="71">+AA16/Z16-1</f>
         <v>0.22774869109947637</v>
       </c>
-      <c r="S34" s="10">
-        <f>+S16/R16-1</f>
+      <c r="AB34" s="10">
+        <f>+AB16/AA16-1</f>
         <v>0.17306325515280729</v>
       </c>
-      <c r="T34" s="10">
-        <f t="shared" ref="T34:Z36" si="51">+T16/S16-1</f>
-        <v>0.17142116025446819</v>
-      </c>
-      <c r="U34" s="10">
-        <f t="shared" si="51"/>
-        <v>0.19826312296568727</v>
-      </c>
-      <c r="V34" s="10">
-        <f t="shared" si="51"/>
-        <v>0.19890779066487707</v>
-      </c>
-      <c r="W34" s="10">
-        <f t="shared" si="51"/>
-        <v>0.19928995587014442</v>
-      </c>
-      <c r="X34" s="10">
-        <f t="shared" si="51"/>
-        <v>0.19942820388456983</v>
-      </c>
-      <c r="Y34" s="10">
-        <f t="shared" si="51"/>
-        <v>0.19933754887599964</v>
-      </c>
-      <c r="Z34" s="10">
-        <f t="shared" si="51"/>
-        <v>0.24037534513340741</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC34" s="10">
+        <f t="shared" ref="AC34:AI36" si="72">+AC16/AB16-1</f>
+        <v>0.1675249924265374</v>
+      </c>
+      <c r="AD34" s="10">
+        <f t="shared" si="72"/>
+        <v>0.14774839128178519</v>
+      </c>
+      <c r="AE34" s="10">
+        <f t="shared" si="72"/>
+        <v>0.10251678547625875</v>
+      </c>
+      <c r="AF34" s="10">
+        <f t="shared" si="72"/>
+        <v>0.19617721281700917</v>
+      </c>
+      <c r="AG34" s="10">
+        <f t="shared" si="72"/>
+        <v>0.19672426725690761</v>
+      </c>
+      <c r="AH34" s="10">
+        <f t="shared" si="72"/>
+        <v>0.19719431939876508</v>
+      </c>
+      <c r="AI34" s="10">
+        <f t="shared" si="72"/>
+        <v>0.1975978647996679</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" ref="G35:L35" si="73">+G17/C17-1</f>
+        <v>0.18840579710144922</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="73"/>
+        <v>0.17342342342342332</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="73"/>
+        <v>0.20394736842105265</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="73"/>
+        <v>0.23788546255506615</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="73"/>
+        <v>0.23170731707317072</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="73"/>
+        <v>0.23416506717850294</v>
+      </c>
+      <c r="AA35" s="10">
+        <f t="shared" ref="AA35:AB35" si="74">+AA17/Z17-1</f>
+        <v>0.26556907659269857</v>
+      </c>
+      <c r="AB35" s="10">
+        <f t="shared" si="74"/>
+        <v>0.20135746606334837</v>
+      </c>
+      <c r="AC35" s="10">
+        <f t="shared" si="72"/>
+        <v>0.19726930320150649</v>
+      </c>
+      <c r="AD35" s="10">
+        <f t="shared" si="72"/>
+        <v>1.5017302398740995E-3</v>
+      </c>
+      <c r="AE35" s="10">
+        <f t="shared" si="72"/>
+        <v>2.1278706546429493E-2</v>
+      </c>
+      <c r="AF35" s="10">
+        <f t="shared" si="72"/>
+        <v>4.6655061214883053E-2</v>
+      </c>
+      <c r="AG35" s="10">
+        <f t="shared" si="72"/>
+        <v>0.11124396245284296</v>
+      </c>
+      <c r="AH35" s="10">
+        <f t="shared" si="72"/>
+        <v>0.19719431939876508</v>
+      </c>
+      <c r="AI35" s="10">
+        <f t="shared" si="72"/>
+        <v>0.1975978647996679</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="10">
-        <f t="shared" ref="G35:L35" si="52">+G17/C17-1</f>
-        <v>0.18840579710144922</v>
-      </c>
-      <c r="H35" s="10">
-        <f t="shared" si="52"/>
-        <v>0.17342342342342332</v>
-      </c>
-      <c r="I35" s="10">
-        <f t="shared" si="52"/>
-        <v>0.20394736842105265</v>
-      </c>
-      <c r="J35" s="10">
-        <f t="shared" si="52"/>
-        <v>0.23788546255506615</v>
-      </c>
-      <c r="K35" s="10">
-        <f t="shared" si="52"/>
-        <v>0.23170731707317072</v>
-      </c>
-      <c r="L35" s="10">
-        <f t="shared" si="52"/>
-        <v>0.23416506717850294</v>
-      </c>
-      <c r="R35" s="10">
-        <f t="shared" ref="R35:S35" si="53">+R17/Q17-1</f>
-        <v>0.26556907659269857</v>
-      </c>
-      <c r="S35" s="10">
-        <f t="shared" si="53"/>
-        <v>0.20135746606334837</v>
-      </c>
-      <c r="T35" s="10">
-        <f t="shared" si="51"/>
-        <v>0.19636546610169492</v>
-      </c>
-      <c r="U35" s="10">
-        <f t="shared" si="51"/>
-        <v>0.17987545355956391</v>
-      </c>
-      <c r="V35" s="10">
-        <f t="shared" si="51"/>
-        <v>0.17909113296793677</v>
-      </c>
-      <c r="W35" s="10">
-        <f t="shared" si="51"/>
-        <v>0.20732091539606068</v>
-      </c>
-      <c r="X35" s="10">
-        <f t="shared" si="51"/>
-        <v>0.20792140123701786</v>
-      </c>
-      <c r="Y35" s="10">
-        <f t="shared" si="51"/>
-        <v>0.23931546717186625</v>
-      </c>
-      <c r="Z35" s="10">
-        <f t="shared" si="51"/>
-        <v>0.24037534513340719</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G36" s="10">
-        <f t="shared" ref="G36:L36" si="54">+G18/C18-1</f>
+        <f t="shared" ref="G36:L36" si="75">+G18/C18-1</f>
         <v>0.1117318435754191</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0.19428571428571439</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0.1390374331550801</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0.24742268041237114</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0.11557788944723613</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>0.11004784688995217</v>
       </c>
-      <c r="R36" s="10">
-        <f t="shared" ref="R36:S36" si="55">+R18/Q18-1</f>
+      <c r="AA36" s="10">
+        <f t="shared" ref="AA36:AB36" si="76">+AA18/Z18-1</f>
         <v>0.23115577889447225</v>
       </c>
-      <c r="S36" s="10">
-        <f t="shared" si="55"/>
+      <c r="AB36" s="10">
+        <f t="shared" si="76"/>
         <v>0.17414965986394559</v>
       </c>
-      <c r="T36" s="10">
-        <f t="shared" si="51"/>
-        <v>0.40822624565469301</v>
-      </c>
-      <c r="U36" s="10">
-        <f t="shared" si="51"/>
-        <v>0.1774376943579945</v>
-      </c>
-      <c r="V36" s="10">
-        <f t="shared" si="51"/>
-        <v>0.17641745692946076</v>
-      </c>
-      <c r="W36" s="10">
-        <f t="shared" si="51"/>
-        <v>0.17492937864153246</v>
-      </c>
-      <c r="X36" s="10">
-        <f t="shared" si="51"/>
-        <v>0.23811943626794307</v>
-      </c>
-      <c r="Y36" s="10">
-        <f t="shared" si="51"/>
-        <v>0.23931546717186625</v>
-      </c>
-      <c r="Z36" s="10">
-        <f t="shared" si="51"/>
-        <v>0.17509243223164894</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC36" s="10">
+        <f t="shared" si="72"/>
+        <v>8.4588644264194768E-2</v>
+      </c>
+      <c r="AD36" s="10">
+        <f t="shared" si="72"/>
+        <v>0.28887596153846151</v>
+      </c>
+      <c r="AE36" s="10">
+        <f t="shared" si="72"/>
+        <v>0.14539243824478021</v>
+      </c>
+      <c r="AF36" s="10">
+        <f t="shared" si="72"/>
+        <v>0.12581384735718504</v>
+      </c>
+      <c r="AG36" s="10">
+        <f t="shared" si="72"/>
+        <v>4.7133733849794579E-2</v>
+      </c>
+      <c r="AH36" s="10">
+        <f t="shared" si="72"/>
+        <v>0.19719431939876508</v>
+      </c>
+      <c r="AI36" s="10">
+        <f t="shared" si="72"/>
+        <v>0.1975978647996679</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12">
-        <f t="shared" ref="G37:L37" si="56">+G11/C11-1</f>
+        <f t="shared" ref="G37:L37" si="77">+G11/C11-1</f>
         <v>0.21718931475029035</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0.22716894977168955</v>
       </c>
       <c r="I37" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0.24959038776624798</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0.25618556701030926</v>
       </c>
       <c r="K37" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0.24188931297709915</v>
       </c>
       <c r="L37" s="12">
-        <f t="shared" si="56"/>
+        <f t="shared" si="77"/>
         <v>0.22186046511627899</v>
       </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="10">
-        <f t="shared" ref="R37:Z37" si="57">+R11/Q11-1</f>
+      <c r="R37" s="12">
+        <f t="shared" ref="R37" si="78">+R11/Q11-1</f>
+        <v>0.74230611407468206</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" ref="S37" si="79">+S11/R11-1</f>
+        <v>0.60763071125765422</v>
+      </c>
+      <c r="T37" s="12">
+        <f t="shared" ref="T37" si="80">+T11/S11-1</f>
+        <v>0.47304424260181643</v>
+      </c>
+      <c r="U37" s="12">
+        <f t="shared" ref="U37" si="81">+U11/T11-1</f>
+        <v>0.38339134758826465</v>
+      </c>
+      <c r="V37" s="12">
+        <f t="shared" ref="V37" si="82">+V11/U11-1</f>
+        <v>0.3792235801581596</v>
+      </c>
+      <c r="W37" s="12">
+        <f t="shared" ref="W37" si="83">+W11/V11-1</f>
+        <v>0.35981235340109463</v>
+      </c>
+      <c r="X37" s="12">
+        <f t="shared" ref="X37" si="84">+X11/W11-1</f>
+        <v>0.32628028212204829</v>
+      </c>
+      <c r="Y37" s="12">
+        <f t="shared" ref="Y37" si="85">+Y11/X11-1</f>
+        <v>0.30606936416184971</v>
+      </c>
+      <c r="Z37" s="12">
+        <f t="shared" ref="Z37" si="86">+Z11/Y11-1</f>
+        <v>0.30471343217526003</v>
+      </c>
+      <c r="AA37" s="12">
+        <f t="shared" ref="AA37:AI37" si="87">+AA11/Z11-1</f>
         <v>0.22879918588873815</v>
       </c>
-      <c r="S37" s="10">
-        <f t="shared" si="57"/>
+      <c r="AB37" s="12">
+        <f t="shared" si="87"/>
         <v>0.23823326432022074</v>
       </c>
-      <c r="T37" s="4">
-        <f t="shared" si="57"/>
-        <v>0.23154330620889518</v>
-      </c>
-      <c r="U37" s="4">
-        <f t="shared" si="57"/>
-        <v>0.23350615599408964</v>
-      </c>
-      <c r="V37" s="4">
-        <f t="shared" si="57"/>
-        <v>0.23523832977593395</v>
-      </c>
-      <c r="W37" s="4">
-        <f t="shared" si="57"/>
-        <v>0.23676776699108659</v>
-      </c>
-      <c r="X37" s="4">
-        <f t="shared" si="57"/>
-        <v>0.23811943626794307</v>
-      </c>
-      <c r="Y37" s="4">
-        <f t="shared" si="57"/>
-        <v>0.23931546717186625</v>
-      </c>
-      <c r="Z37" s="4">
-        <f t="shared" si="57"/>
-        <v>0.24037534513340741</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC37" s="17">
+        <f t="shared" si="87"/>
+        <v>0.22438970014491133</v>
+      </c>
+      <c r="AD37" s="17">
+        <f t="shared" si="87"/>
+        <v>0.22034868900218485</v>
+      </c>
+      <c r="AE37" s="17">
+        <f t="shared" si="87"/>
+        <v>0.21276846402388472</v>
+      </c>
+      <c r="AF37" s="17">
+        <f t="shared" si="87"/>
+        <v>0.19617721281700917</v>
+      </c>
+      <c r="AG37" s="17">
+        <f t="shared" si="87"/>
+        <v>0.19672426725690784</v>
+      </c>
+      <c r="AH37" s="17">
+        <f t="shared" si="87"/>
+        <v>0.19719431939876508</v>
+      </c>
+      <c r="AI37" s="17">
+        <f t="shared" si="87"/>
+        <v>0.1975978647996679</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -3514,257 +4441,329 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10">
-        <f t="shared" ref="E39:L39" si="58">+E15/E11</f>
+        <f t="shared" ref="E39:L39" si="88">+E15/E11</f>
         <v>0.78154014199890776</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="88"/>
         <v>0.78608247422680411</v>
       </c>
       <c r="G39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="88"/>
         <v>0.79103053435114501</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="88"/>
         <v>0.78093023255813954</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="88"/>
         <v>0.78321678321678323</v>
       </c>
       <c r="J39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="88"/>
         <v>0.78826425933524824</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="88"/>
         <v>0.80023050326546297</v>
       </c>
       <c r="L39" s="10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="88"/>
         <v>0.78987438142367716</v>
       </c>
       <c r="Q39" s="10">
-        <f t="shared" ref="Q39:Z39" si="59">+Q15/Q11</f>
+        <f t="shared" ref="Q39:Y39" si="89">+Q15/Q11</f>
+        <v>0.57324579400902742</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.63424399434762124</v>
+      </c>
+      <c r="S39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.63551128039847637</v>
+      </c>
+      <c r="T39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.67240179015415213</v>
+      </c>
+      <c r="U39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.71315600287562908</v>
+      </c>
+      <c r="V39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.73943184779775861</v>
+      </c>
+      <c r="W39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.76130788101809266</v>
+      </c>
+      <c r="X39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.76994219653179186</v>
+      </c>
+      <c r="Y39" s="10">
+        <f t="shared" si="89"/>
+        <v>0.78158884709006415</v>
+      </c>
+      <c r="Z39" s="10">
+        <f t="shared" ref="Z39:AI39" si="90">+Z15/Z11</f>
         <v>0.77052238805970152</v>
       </c>
-      <c r="R39" s="10">
-        <f t="shared" si="59"/>
+      <c r="AA39" s="10">
+        <f t="shared" si="90"/>
         <v>0.78288474810213937</v>
       </c>
-      <c r="S39" s="10">
-        <f t="shared" si="59"/>
+      <c r="AB39" s="10">
+        <f t="shared" si="90"/>
         <v>0.78586556682644071</v>
       </c>
-      <c r="T39" s="10">
-        <f t="shared" si="59"/>
+      <c r="AC39" s="10">
+        <f t="shared" si="90"/>
+        <v>0.79178805535324104</v>
+      </c>
+      <c r="AD39" s="10">
+        <f t="shared" si="90"/>
+        <v>0.79499999999999993</v>
+      </c>
+      <c r="AE39" s="10">
+        <f t="shared" si="90"/>
+        <v>0.79499999999999993</v>
+      </c>
+      <c r="AF39" s="10">
+        <f t="shared" si="90"/>
         <v>0.79500000000000004</v>
       </c>
-      <c r="U39" s="10">
-        <f t="shared" si="59"/>
+      <c r="AG39" s="10">
+        <f t="shared" si="90"/>
         <v>0.79499999999999993</v>
       </c>
-      <c r="V39" s="10">
-        <f t="shared" si="59"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="W39" s="10">
-        <f t="shared" si="59"/>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="X39" s="10">
-        <f t="shared" si="59"/>
+      <c r="AH39" s="10">
+        <f t="shared" si="90"/>
         <v>0.79499999999999993</v>
       </c>
-      <c r="Y39" s="10">
-        <f t="shared" si="59"/>
+      <c r="AI39" s="10">
+        <f t="shared" si="90"/>
         <v>0.79499999999999993</v>
       </c>
-      <c r="Z39" s="10">
-        <f t="shared" si="59"/>
-        <v>0.79499999999999993</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10">
-        <f t="shared" ref="E40:L40" si="60">+E20/E11</f>
+        <f t="shared" ref="E40:L40" si="91">+E20/E11</f>
         <v>4.9699617695248499E-2</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>7.9896907216494839E-2</v>
       </c>
       <c r="G40" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>6.8702290076335881E-2</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>5.4418604651162793E-2</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>0.10096153846153846</v>
       </c>
       <c r="J40" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>0.1107919573245794</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>0.12754514022281982</v>
       </c>
       <c r="L40" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="91"/>
         <v>9.1358964598401218E-2</v>
       </c>
       <c r="Q40" s="10">
-        <f t="shared" ref="Q40:Z40" si="61">+Q20/Q11</f>
+        <f t="shared" ref="Q40:Y40" si="92">+Q20/Q11</f>
+        <v>-0.154288059089044</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="92"/>
+        <v>-0.15638247762600088</v>
+      </c>
+      <c r="S40" s="10">
+        <f t="shared" si="92"/>
+        <v>-0.2223849985350132</v>
+      </c>
+      <c r="T40" s="10">
+        <f t="shared" si="92"/>
+        <v>-0.16539035305817998</v>
+      </c>
+      <c r="U40" s="10">
+        <f t="shared" si="92"/>
+        <v>-0.27476635514018694</v>
+      </c>
+      <c r="V40" s="10">
+        <f t="shared" si="92"/>
+        <v>-3.3567891581965124E-2</v>
+      </c>
+      <c r="W40" s="10">
+        <f t="shared" si="92"/>
+        <v>-1.6291015026065534E-2</v>
+      </c>
+      <c r="X40" s="10">
+        <f t="shared" si="92"/>
+        <v>1.2138728323699421E-2</v>
+      </c>
+      <c r="Y40" s="10">
+        <f t="shared" si="92"/>
+        <v>4.4036291214870543E-2</v>
+      </c>
+      <c r="Z40" s="10">
+        <f t="shared" ref="Z40:AI40" si="93">+Z20/Z11</f>
         <v>4.3588873812754413E-2</v>
       </c>
-      <c r="R40" s="10">
-        <f t="shared" si="61"/>
+      <c r="AA40" s="10">
+        <f t="shared" si="93"/>
         <v>4.8999309868875088E-2</v>
       </c>
-      <c r="S40" s="10">
-        <f t="shared" si="61"/>
+      <c r="AB40" s="10">
+        <f t="shared" si="93"/>
         <v>8.4940363393155721E-2</v>
       </c>
-      <c r="T40" s="10">
-        <f t="shared" si="61"/>
-        <v>0.10500000000000005</v>
-      </c>
-      <c r="U40" s="10">
-        <f t="shared" si="61"/>
-        <v>0.12999999999999989</v>
-      </c>
-      <c r="V40" s="10">
-        <f t="shared" si="61"/>
-        <v>0.15499999999999994</v>
-      </c>
-      <c r="W40" s="10">
-        <f t="shared" si="61"/>
-        <v>0.17500000000000013</v>
-      </c>
-      <c r="X40" s="10">
-        <f t="shared" si="61"/>
-        <v>0.18999999999999995</v>
-      </c>
-      <c r="Y40" s="10">
-        <f t="shared" si="61"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="Z40" s="10">
-        <f t="shared" si="61"/>
-        <v>0.20500000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC40" s="10">
+        <f t="shared" si="93"/>
+        <v>0.12418062636562273</v>
+      </c>
+      <c r="AD40" s="10">
+        <f t="shared" si="93"/>
+        <v>0.18499999999999991</v>
+      </c>
+      <c r="AE40" s="10">
+        <f t="shared" si="93"/>
+        <v>0.24999999999999992</v>
+      </c>
+      <c r="AF40" s="10">
+        <f t="shared" si="93"/>
+        <v>0.27500000000000008</v>
+      </c>
+      <c r="AG40" s="10">
+        <f t="shared" si="93"/>
+        <v>0.29499999999999982</v>
+      </c>
+      <c r="AH40" s="10">
+        <f t="shared" si="93"/>
+        <v>0.29499999999999993</v>
+      </c>
+      <c r="AI40" s="10">
+        <f t="shared" si="93"/>
+        <v>0.29499999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10">
-        <f t="shared" ref="E41:L41" si="62">+E25/E11</f>
+        <f t="shared" ref="E41:L41" si="94">+E25/E11</f>
         <v>4.3691971600218461E-2</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>7.7319587628865982E-2</v>
       </c>
       <c r="G41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>7.15648854961832E-2</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>-0.32372093023255816</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0.10576923076923077</v>
       </c>
       <c r="J41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0.12105047189167009</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>0.13330772185939302</v>
       </c>
       <c r="L41" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="94"/>
         <v>9.9733536353254659E-2</v>
       </c>
-      <c r="Q41" s="10">
-        <f t="shared" ref="Q41:Z41" si="63">+Q25/Q11</f>
+      <c r="Z41" s="10">
+        <f t="shared" ref="Z41:AI41" si="95">+Z25/Z11</f>
         <v>3.9009497964721848E-2</v>
       </c>
-      <c r="R41" s="10">
-        <f t="shared" si="63"/>
+      <c r="AA41" s="10">
+        <f t="shared" si="95"/>
         <v>4.4858523119392688E-2</v>
       </c>
-      <c r="S41" s="10">
-        <f t="shared" si="63"/>
+      <c r="AB41" s="10">
+        <f t="shared" si="95"/>
         <v>0.19295507747185375</v>
       </c>
-      <c r="T41" s="10">
-        <f t="shared" si="63"/>
-        <v>0.10939613250604742</v>
-      </c>
-      <c r="U41" s="10">
-        <f t="shared" si="63"/>
-        <v>0.12764294786493435</v>
-      </c>
-      <c r="V41" s="10">
-        <f t="shared" si="63"/>
-        <v>0.14672454166762974</v>
-      </c>
-      <c r="W41" s="10">
-        <f t="shared" si="63"/>
-        <v>0.16256350643674886</v>
-      </c>
-      <c r="X41" s="10">
-        <f t="shared" si="63"/>
-        <v>0.17492374804941591</v>
-      </c>
-      <c r="Y41" s="10">
-        <f t="shared" si="63"/>
-        <v>0.18360545473525275</v>
-      </c>
-      <c r="Z41" s="10">
-        <f t="shared" si="63"/>
-        <v>0.18844026387553786</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC41" s="10">
+        <f t="shared" si="95"/>
+        <v>0.12973415877640204</v>
+      </c>
+      <c r="AD41" s="10">
+        <f t="shared" si="95"/>
+        <v>0.22026825002555142</v>
+      </c>
+      <c r="AE41" s="10">
+        <f t="shared" si="95"/>
+        <v>0.28013740411014304</v>
+      </c>
+      <c r="AF41" s="10">
+        <f t="shared" si="95"/>
+        <v>0.3140865600481601</v>
+      </c>
+      <c r="AG41" s="10">
+        <f t="shared" si="95"/>
+        <v>0.34506896801269454</v>
+      </c>
+      <c r="AH41" s="10">
+        <f t="shared" si="95"/>
+        <v>0.36077332631764464</v>
+      </c>
+      <c r="AI41" s="10">
+        <f t="shared" si="95"/>
+        <v>0.37539741936084053</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5">
         <v>863</v>
@@ -3805,19 +4804,49 @@
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="5">
+      <c r="Q43" s="19">
+        <v>48.8</v>
+      </c>
+      <c r="R43" s="19">
+        <v>81.7</v>
+      </c>
+      <c r="S43" s="19">
+        <v>140.9</v>
+      </c>
+      <c r="T43" s="19">
+        <v>317.8</v>
+      </c>
+      <c r="U43" s="19">
+        <v>159.1</v>
+      </c>
+      <c r="V43" s="19">
+        <v>642.9</v>
+      </c>
+      <c r="W43" s="19">
+        <v>811.1</v>
+      </c>
+      <c r="X43" s="19">
+        <v>1236</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>1786</v>
+      </c>
+      <c r="Z43" s="5">
         <v>2191</v>
       </c>
-      <c r="R43" s="5">
+      <c r="AA43" s="5">
         <v>2723</v>
       </c>
-      <c r="S43" s="5">
+      <c r="AB43" s="5">
         <v>3398</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC43" s="1">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5">
         <v>93</v>
@@ -3858,19 +4887,49 @@
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="5">
+      <c r="Q44" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R44" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="S44" s="21">
+        <v>54.4</v>
+      </c>
+      <c r="T44" s="21">
+        <v>87.5</v>
+      </c>
+      <c r="U44" s="21">
+        <v>105.6</v>
+      </c>
+      <c r="V44" s="21">
+        <v>150.5</v>
+      </c>
+      <c r="W44" s="21">
+        <v>224.5</v>
+      </c>
+      <c r="X44" s="21">
+        <v>265</v>
+      </c>
+      <c r="Y44" s="21">
+        <v>419</v>
+      </c>
+      <c r="Z44" s="5">
         <v>392</v>
       </c>
-      <c r="R44" s="5">
+      <c r="AA44" s="5">
         <v>550</v>
       </c>
-      <c r="S44" s="5">
+      <c r="AB44" s="5">
         <v>694</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC44" s="1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5">
         <v>325</v>
@@ -3911,54 +4970,66 @@
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="5">
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5">
         <v>1131</v>
       </c>
-      <c r="R45" s="5">
+      <c r="AA45" s="5">
         <v>1401</v>
       </c>
-      <c r="S45" s="5">
+      <c r="AB45" s="5">
         <v>1604</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AC45" s="1">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="6">
-        <f t="shared" ref="C46:K46" si="64">+C43-C44</f>
+        <f t="shared" ref="C46:K46" si="96">+C43-C44</f>
         <v>770</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>282</v>
       </c>
       <c r="E46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>103</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1018</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>737</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>448</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>175</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1344</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="96"/>
         <v>1206</v>
       </c>
       <c r="L46" s="6">
@@ -3966,85 +5037,121 @@
         <v>358</v>
       </c>
       <c r="M46" s="6">
-        <f t="shared" ref="M46:N46" si="65">+M43-M44</f>
+        <f t="shared" ref="M46:N46" si="97">+M43-M44</f>
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
-      <c r="Q46" s="6">
-        <f t="shared" ref="Q46:R46" si="66">+Q43-Q44</f>
+      <c r="Q46" s="6" t="e">
+        <f t="shared" ref="Q46:AB46" si="98">+Q43-Q44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R46" s="6" t="e">
+        <f t="shared" si="98"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S46" s="6">
+        <f t="shared" si="98"/>
+        <v>86.5</v>
+      </c>
+      <c r="T46" s="6">
+        <f t="shared" si="98"/>
+        <v>230.3</v>
+      </c>
+      <c r="U46" s="6">
+        <f t="shared" si="98"/>
+        <v>53.5</v>
+      </c>
+      <c r="V46" s="6">
+        <f t="shared" si="98"/>
+        <v>492.4</v>
+      </c>
+      <c r="W46" s="6">
+        <f t="shared" si="98"/>
+        <v>586.6</v>
+      </c>
+      <c r="X46" s="6">
+        <f t="shared" si="98"/>
+        <v>971</v>
+      </c>
+      <c r="Y46" s="6">
+        <f t="shared" si="98"/>
+        <v>1367</v>
+      </c>
+      <c r="Z46" s="6">
+        <f t="shared" si="98"/>
         <v>1799</v>
       </c>
-      <c r="R46" s="6">
-        <f t="shared" si="66"/>
+      <c r="AA46" s="6">
+        <f t="shared" si="98"/>
         <v>2173</v>
       </c>
-      <c r="S46" s="6">
-        <f>+S43-S44</f>
+      <c r="AB46" s="6">
+        <f t="shared" si="98"/>
         <v>2704</v>
       </c>
-      <c r="T46" s="2">
-        <f t="shared" ref="T46" si="67">+T43-T44-T45</f>
+      <c r="AC46" s="6">
+        <f>+AC43-AC44</f>
+        <v>3415</v>
+      </c>
+      <c r="AD46" s="2">
+        <f t="shared" ref="AD46" si="99">+AD43-AD44-AD45</f>
         <v>0</v>
       </c>
-      <c r="U46" s="2">
-        <f t="shared" ref="U46" si="68">+U43-U44-U45</f>
+      <c r="AE46" s="2">
+        <f t="shared" ref="AE46" si="100">+AE43-AE44-AE45</f>
         <v>0</v>
       </c>
-      <c r="V46" s="2">
-        <f t="shared" ref="V46" si="69">+V43-V44-V45</f>
+      <c r="AF46" s="2">
+        <f t="shared" ref="AF46" si="101">+AF43-AF44-AF45</f>
         <v>0</v>
       </c>
-      <c r="W46" s="2">
-        <f t="shared" ref="W46" si="70">+W43-W44-W45</f>
+      <c r="AG46" s="2">
+        <f t="shared" ref="AG46" si="102">+AG43-AG44-AG45</f>
         <v>0</v>
       </c>
-      <c r="X46" s="2">
-        <f t="shared" ref="X46" si="71">+X43-X44-X45</f>
+      <c r="AH46" s="2">
+        <f t="shared" ref="AH46" si="103">+AH43-AH44-AH45</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="2">
-        <f t="shared" ref="Y46" si="72">+Y43-Y44-Y45</f>
+      <c r="AI46" s="2">
+        <f t="shared" ref="AI46" si="104">+AI43-AI44-AI45</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="2">
-        <f t="shared" ref="Z46" si="73">+Z43-Z44-Z45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
-        <f t="shared" ref="F47:K47" si="74">+SUM(C46:F46)</f>
+        <f t="shared" ref="F47:K47" si="105">+SUM(C46:F46)</f>
         <v>2173</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="105"/>
         <v>2140</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="105"/>
         <v>2306</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="105"/>
         <v>2378</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="105"/>
         <v>2704</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="74"/>
+        <f t="shared" si="105"/>
         <v>3173</v>
       </c>
       <c r="L47" s="5">
@@ -4058,42 +5165,55 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" ref="J48:K48" si="75">+J47/G47-1</f>
+        <f t="shared" ref="J48:K48" si="106">+J47/G47-1</f>
         <v>0.26355140186915893</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="106"/>
         <v>0.37597571552471809</v>
       </c>
       <c r="L48" s="10">
         <f>+L47/I47-1</f>
         <v>0.29646761984861225</v>
       </c>
-      <c r="R48" s="10">
-        <f t="shared" ref="R48" si="76">+R46/Q46-1</f>
+      <c r="AA48" s="10">
+        <f t="shared" ref="AA48" si="107">+AA46/Z46-1</f>
         <v>0.20789327404113389</v>
       </c>
-      <c r="S48" s="10">
-        <f>+S46/R46-1</f>
+      <c r="AB48" s="10">
+        <f>+AB46/AA46-1</f>
         <v>0.24436263230556832</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC48" s="10">
+        <f t="shared" ref="AC48" si="108">+AC46/AB46-1</f>
+        <v>0.26294378698224863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" s="5">
         <f>+H51+H52+H57-H72</f>
@@ -4106,38 +5226,38 @@
         <f>+L51+L52+L57-L72</f>
         <v>7397</v>
       </c>
-      <c r="T50" s="5">
-        <f>+L50+T25</f>
-        <v>8605.6276162499998</v>
-      </c>
-      <c r="U50" s="5">
-        <f>+T50+U25</f>
-        <v>10345.144672654373</v>
-      </c>
-      <c r="V50" s="5">
-        <f t="shared" ref="V50:Z50" si="77">+U50+V25</f>
-        <v>12815.078891757814</v>
-      </c>
-      <c r="W50" s="5">
-        <f t="shared" si="77"/>
-        <v>16199.573618194261</v>
-      </c>
-      <c r="X50" s="5">
-        <f t="shared" si="77"/>
-        <v>20708.592968294543</v>
-      </c>
-      <c r="Y50" s="5">
-        <f t="shared" si="77"/>
-        <v>26574.035366926517</v>
-      </c>
-      <c r="Z50" s="5">
-        <f t="shared" si="77"/>
-        <v>34040.964397238175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC50" s="5">
+        <f>+main!J6-main!J7</f>
+        <v>8384</v>
+      </c>
+      <c r="AD50" s="5">
+        <f>+AC50+AD25</f>
+        <v>11336.543906499999</v>
+      </c>
+      <c r="AE50" s="5">
+        <f t="shared" ref="AE50:AI50" si="109">+AD50+AE25</f>
+        <v>15890.548438295247</v>
+      </c>
+      <c r="AF50" s="5">
+        <f t="shared" si="109"/>
+        <v>21998.101326512297</v>
+      </c>
+      <c r="AG50" s="5">
+        <f t="shared" si="109"/>
+        <v>30028.144608744533</v>
+      </c>
+      <c r="AH50" s="5">
+        <f t="shared" si="109"/>
+        <v>40079.185716334825</v>
+      </c>
+      <c r="AI50" s="5">
+        <f t="shared" si="109"/>
+        <v>52604.220031905941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H51" s="5">
         <v>1897</v>
@@ -4149,9 +5269,9 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H52" s="5">
         <v>2980</v>
@@ -4163,9 +5283,9 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H53" s="5">
         <v>2036</v>
@@ -4177,9 +5297,9 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" s="5">
         <v>461</v>
@@ -4191,9 +5311,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="5">
         <v>403</v>
@@ -4205,9 +5325,9 @@
         <v>608</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H56" s="5">
         <v>919</v>
@@ -4219,9 +5339,9 @@
         <v>928</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H57" s="5">
         <v>3203</v>
@@ -4233,9 +5353,9 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H58" s="5">
         <v>1358</v>
@@ -4247,9 +5367,9 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H59" s="5">
         <v>715</v>
@@ -4261,9 +5381,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H60" s="5">
         <v>224</v>
@@ -4275,9 +5395,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H61" s="5">
         <v>1231</v>
@@ -4289,9 +5409,9 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H62" s="5">
         <v>1508</v>
@@ -4303,9 +5423,9 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H63" s="5">
         <v>452</v>
@@ -4317,10 +5437,10 @@
         <v>599</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H64" s="6">
         <f>+SUM(H50:H63)</f>
@@ -4343,7 +5463,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H66" s="5">
         <v>126</v>
@@ -4357,7 +5477,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H67" s="5">
         <v>1365</v>
@@ -4371,7 +5491,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H68" s="5">
         <v>5785</v>
@@ -4385,7 +5505,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" s="5">
         <v>89</v>
@@ -4399,7 +5519,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H70" s="5">
         <v>81</v>
@@ -4413,7 +5533,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H71" s="5">
         <v>707</v>
@@ -4427,7 +5547,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H72" s="5">
         <v>1488</v>
@@ -4441,7 +5561,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H73" s="5">
         <v>118</v>
@@ -4456,7 +5576,7 @@
     <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H74" s="6">
         <f>+SUM(H66:H73)</f>
@@ -4473,7 +5593,7 @@
     <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H75" s="6">
         <f>+H64-H74</f>
@@ -4489,7 +5609,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -4514,13 +5634,153 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H79" s="4">
         <v>0.99</v>
       </c>
       <c r="L79" s="4">
         <v>0.98</v>
+      </c>
+    </row>
+    <row r="81" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z82" s="4">
+        <f t="shared" ref="Z82:AB82" si="110">+Z16/Z$11</f>
+        <v>0.3887381275440977</v>
+      </c>
+      <c r="AA82" s="4">
+        <f t="shared" si="110"/>
+        <v>0.38840579710144929</v>
+      </c>
+      <c r="AB82" s="4">
+        <f t="shared" si="110"/>
+        <v>0.36796343774384127</v>
+      </c>
+      <c r="AC82" s="4">
+        <f>+AC16/AC$11</f>
+        <v>0.35087399854333579</v>
+      </c>
+      <c r="AD82" s="4">
+        <f t="shared" ref="AD82:AI82" si="111">+AD16/AD$11</f>
+        <v>0.33</v>
+      </c>
+      <c r="AE82" s="4">
+        <f t="shared" si="111"/>
+        <v>0.3</v>
+      </c>
+      <c r="AF82" s="4">
+        <f t="shared" si="111"/>
+        <v>0.3</v>
+      </c>
+      <c r="AG82" s="4">
+        <f t="shared" si="111"/>
+        <v>0.3</v>
+      </c>
+      <c r="AH82" s="4">
+        <f t="shared" si="111"/>
+        <v>0.3</v>
+      </c>
+      <c r="AI82" s="4">
+        <f t="shared" si="111"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z83" s="4">
+        <f t="shared" ref="Z83:AC83" si="112">+Z17/Z$11</f>
+        <v>0.23694029850746268</v>
+      </c>
+      <c r="AA83" s="4">
+        <f t="shared" si="112"/>
+        <v>0.24403036576949622</v>
+      </c>
+      <c r="AB83" s="4">
+        <f t="shared" si="112"/>
+        <v>0.23676290268643407</v>
+      </c>
+      <c r="AC83" s="4">
+        <f t="shared" si="112"/>
+        <v>0.23151857246904589</v>
+      </c>
+      <c r="AD83" s="4">
+        <f t="shared" ref="AD83:AI83" si="113">+AD17/AD$11</f>
+        <v>0.19</v>
+      </c>
+      <c r="AE83" s="4">
+        <f t="shared" si="113"/>
+        <v>0.16</v>
+      </c>
+      <c r="AF83" s="4">
+        <f t="shared" si="113"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG83" s="4">
+        <f t="shared" si="113"/>
+        <v>0.13</v>
+      </c>
+      <c r="AH83" s="4">
+        <f t="shared" si="113"/>
+        <v>0.13</v>
+      </c>
+      <c r="AI83" s="4">
+        <f t="shared" si="113"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z84" s="4">
+        <f t="shared" ref="Z84:AC84" si="114">+Z18/Z$11</f>
+        <v>0.1012550881953867</v>
+      </c>
+      <c r="AA84" s="4">
+        <f t="shared" si="114"/>
+        <v>0.10144927536231885</v>
+      </c>
+      <c r="AB84" s="4">
+        <f t="shared" si="114"/>
+        <v>9.6198863003009699E-2</v>
+      </c>
+      <c r="AC84" s="4">
+        <f t="shared" si="114"/>
+        <v>8.5214857975236702E-2</v>
+      </c>
+      <c r="AD84" s="4">
+        <f t="shared" ref="AD84:AI84" si="115">+AD18/AD$11</f>
+        <v>0.09</v>
+      </c>
+      <c r="AE84" s="4">
+        <f t="shared" si="115"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AF84" s="4">
+        <f t="shared" si="115"/>
+        <v>0.08</v>
+      </c>
+      <c r="AG84" s="4">
+        <f t="shared" si="115"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH84" s="4">
+        <f t="shared" si="115"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AI84" s="4">
+        <f t="shared" si="115"/>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
